--- a/data/checker/results.xlsx
+++ b/data/checker/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,33 +458,7793 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>instance_0116_131956_Z1</t>
+          <t>instance_0928_139883_Z1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>657</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>27991.1</v>
+        <v>484.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>instance_0928_139883_Z1</t>
+          <t>instance_1123_141813_Z2</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>84</v>
+      </c>
+      <c r="C3" t="n">
+        <v>356</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14395.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>instance_0203_132623_Z2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>34</v>
+      </c>
+      <c r="C4" t="n">
+        <v>146</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7581.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>instance_0925_139725_Z2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1444.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>instance_1122_141737_Z2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>112</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5537.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>instance_0215_132916_Z1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>432.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>instance_0202_132574_Z2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
-        <v>503.4</v>
+      <c r="D8" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>instance_0130_132439_Z2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>44</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1570.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>instance_1121_141686_Z1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>70</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2683.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>instance_0925_139743_Z2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>instance_1122_141731_Z2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>476.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>instance_1123_141788_Z1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>991.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>instance_1120_141641_Z2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>36</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1317.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>instance_0116_131955_Z1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>28</v>
+      </c>
+      <c r="C15" t="n">
+        <v>124</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2660.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>instance_0116_131965_Z1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>instance_0215_132928_Z1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>26</v>
+      </c>
+      <c r="C17" t="n">
+        <v>114</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5334.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>instance_0928_139882_Z2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>instance_1122_141757_Z2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>34</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1980.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>instance_1124_141846_Z2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>63</v>
+      </c>
+      <c r="C20" t="n">
+        <v>276</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12799.9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>instance_0116_131965_Z2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1190.9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>instance_1124_141857_Z2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>57</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2343.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>instance_0214_132881_Z1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>335.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>instance_0202_132576_Z1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>337.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>instance_0203_132607_Z1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>292.9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>instance_0606_136188_Z2</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>51</v>
+      </c>
+      <c r="C26" t="n">
+        <v>207</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8474</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>instance_0926_139760_Z2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>23</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1085.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>instance_0215_132932_Z1</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>31</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1130.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>instance_0927_139807_Z2</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1375.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>instance_0925_139724_Z2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>49</v>
+      </c>
+      <c r="C30" t="n">
+        <v>202</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10704</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>instance_0130_132420_Z2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1272.7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>instance_0926_139768_Z2</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>703.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>instance_0927_139831_Z2</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>49</v>
+      </c>
+      <c r="C33" t="n">
+        <v>203</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10553.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>instance_0925_139721_Z2</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>39</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>instance_0215_132946_Z1</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>43</v>
+      </c>
+      <c r="C35" t="n">
+        <v>176</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2956.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>instance_0202_132574_Z1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11</v>
+      </c>
+      <c r="D36" t="n">
+        <v>672.2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>instance_0203_132622_Z2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>975.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>instance_0203_132623_Z1</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>155</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>instance_0116_131940_Z1</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>26</v>
+      </c>
+      <c r="D39" t="n">
+        <v>758.9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>instance_0606_136175_Z2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11</v>
+      </c>
+      <c r="D40" t="n">
+        <v>752.1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>instance_1120_141632_Z2</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>81</v>
+      </c>
+      <c r="C41" t="n">
+        <v>333</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14879.9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>instance_0927_139805_Z2</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>17</v>
+      </c>
+      <c r="C42" t="n">
+        <v>83</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>instance_0116_131981_Z1</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>71</v>
+      </c>
+      <c r="C43" t="n">
+        <v>286</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9459.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>instance_1121_141696_Z1</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>63</v>
+      </c>
+      <c r="C44" t="n">
+        <v>250</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8396.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>instance_0214_132890_Z1</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1409.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>instance_0926_139762_Z2</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>42</v>
+      </c>
+      <c r="C46" t="n">
+        <v>176</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9461.200000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>instance_0927_139799_Z1</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12</v>
+      </c>
+      <c r="D47" t="n">
+        <v>626.3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>instance_0201_132543_Z2</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>28</v>
+      </c>
+      <c r="C48" t="n">
+        <v>112</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4760.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>instance_0928_139855_Z1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>40</v>
+      </c>
+      <c r="C49" t="n">
+        <v>166</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6266.9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>instance_1124_141859_Z1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>21</v>
+      </c>
+      <c r="D50" t="n">
+        <v>995.8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>instance_1123_141797_Z2</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1935.8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>instance_1122_141756_Z1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>38</v>
+      </c>
+      <c r="C52" t="n">
+        <v>158</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>instance_0928_139881_Z1</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>82</v>
+      </c>
+      <c r="C53" t="n">
+        <v>344</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13062.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>instance_1123_141793_Z2</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>31</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1243.4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>instance_1121_141696_Z2</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>28</v>
+      </c>
+      <c r="C55" t="n">
+        <v>115</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5894.1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>instance_0927_139829_Z1</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>51</v>
+      </c>
+      <c r="C56" t="n">
+        <v>213</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8798.299999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>instance_0116_131952_Z1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>67</v>
+      </c>
+      <c r="C57" t="n">
+        <v>280</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9153.200000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>instance_0928_139867_Z2</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>29</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1326.6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>instance_0215_132918_Z1</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>45</v>
+      </c>
+      <c r="C59" t="n">
+        <v>194</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9596.4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>instance_0606_136193_Z2</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" t="n">
+        <v>46</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1357.6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>instance_0606_136170_Z2</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>29</v>
+      </c>
+      <c r="C61" t="n">
+        <v>129</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5513.1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>instance_1122_141742_Z1</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>17</v>
+      </c>
+      <c r="D62" t="n">
+        <v>914.2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>instance_0201_132531_Z1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>46</v>
+      </c>
+      <c r="C63" t="n">
+        <v>187</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9617.4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>instance_1123_141811_Z2</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>33</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1284.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>instance_0928_139859_Z2</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>71</v>
+      </c>
+      <c r="C65" t="n">
+        <v>285</v>
+      </c>
+      <c r="D65" t="n">
+        <v>12255.3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>instance_1124_141839_Z1</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" t="n">
+        <v>30</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1191.3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>instance_0925_139700_Z1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>20</v>
+      </c>
+      <c r="C67" t="n">
+        <v>81</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4599.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>instance_0202_132577_Z1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>17</v>
+      </c>
+      <c r="C68" t="n">
+        <v>73</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1350.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>instance_0926_139783_Z1</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>10</v>
+      </c>
+      <c r="C69" t="n">
+        <v>50</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1405.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>instance_0116_131933_Z1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>15</v>
+      </c>
+      <c r="C70" t="n">
+        <v>69</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>instance_0928_139880_Z1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>66</v>
+      </c>
+      <c r="C71" t="n">
+        <v>260</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9580.700000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>instance_0928_139869_Z1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>58</v>
+      </c>
+      <c r="C72" t="n">
+        <v>239</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8315.700000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>instance_0927_139809_Z1</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>76</v>
+      </c>
+      <c r="C73" t="n">
+        <v>321</v>
+      </c>
+      <c r="D73" t="n">
+        <v>12482.9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>instance_0927_139802_Z1</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>33</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1347.9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>instance_0201_132549_Z2</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>13</v>
+      </c>
+      <c r="C75" t="n">
+        <v>52</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1247.8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>instance_1124_141859_Z2</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>22</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1244.2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>instance_0925_139716_Z1</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>17</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1207.6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>instance_0214_132881_Z2</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>539.2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>instance_0925_139704_Z1</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>16</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1235.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>instance_0202_132583_Z2</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>54</v>
+      </c>
+      <c r="C80" t="n">
+        <v>228</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9730.299999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>instance_1121_141679_Z2</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>25</v>
+      </c>
+      <c r="C81" t="n">
+        <v>107</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5334.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>instance_0926_139777_Z1</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" t="n">
+        <v>31</v>
+      </c>
+      <c r="D82" t="n">
+        <v>722.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>instance_1121_141681_Z2</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>23</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1439.9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>instance_0202_132584_Z1</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>10</v>
+      </c>
+      <c r="C84" t="n">
+        <v>39</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>instance_1120_141632_Z1</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>75</v>
+      </c>
+      <c r="C85" t="n">
+        <v>314</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12589.9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>instance_1124_141844_Z2</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>16</v>
+      </c>
+      <c r="C86" t="n">
+        <v>71</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>instance_0927_139812_Z1</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>13</v>
+      </c>
+      <c r="C87" t="n">
+        <v>59</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2113.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>instance_0203_132607_Z2</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>311.9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>instance_0926_139768_Z1</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>10</v>
+      </c>
+      <c r="D89" t="n">
+        <v>741.8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>instance_1124_141841_Z1</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>13</v>
+      </c>
+      <c r="D90" t="n">
+        <v>769.3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>instance_0214_132880_Z2</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>34</v>
+      </c>
+      <c r="C91" t="n">
+        <v>158</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7287.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>instance_0927_139824_Z2</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>11</v>
+      </c>
+      <c r="C92" t="n">
+        <v>51</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1974.5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>instance_0215_132930_Z2</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>24</v>
+      </c>
+      <c r="C93" t="n">
+        <v>109</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4047.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>instance_0116_131953_Z1</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>68</v>
+      </c>
+      <c r="C94" t="n">
+        <v>284</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9414.6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>instance_1124_141844_Z1</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>13</v>
+      </c>
+      <c r="C95" t="n">
+        <v>50</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2111.7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>instance_0201_132538_Z2</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+      <c r="C96" t="n">
+        <v>27</v>
+      </c>
+      <c r="D96" t="n">
+        <v>931.8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>instance_0926_139760_Z1</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>21</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1158.4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>instance_1123_141812_Z2</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>53</v>
+      </c>
+      <c r="C98" t="n">
+        <v>223</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9738.5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>instance_1121_141704_Z1</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>76</v>
+      </c>
+      <c r="C99" t="n">
+        <v>324</v>
+      </c>
+      <c r="D99" t="n">
+        <v>11184.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>instance_0214_132879_Z1</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>571.4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>instance_0202_132583_Z1</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>60</v>
+      </c>
+      <c r="C101" t="n">
+        <v>249</v>
+      </c>
+      <c r="D101" t="n">
+        <v>11364.2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>instance_1123_141810_Z1</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>9</v>
+      </c>
+      <c r="C102" t="n">
+        <v>36</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2035.4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>instance_1122_141739_Z2</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>28</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>instance_0203_132615_Z2</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>14</v>
+      </c>
+      <c r="D104" t="n">
+        <v>837.1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>instance_1122_141759_Z1</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>53</v>
+      </c>
+      <c r="C105" t="n">
+        <v>214</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8736.700000000001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>instance_0928_139872_Z1</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>45</v>
+      </c>
+      <c r="C106" t="n">
+        <v>194</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6737.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>instance_1122_141758_Z2</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>29</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1341.6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>instance_0116_131936_Z2</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>24</v>
+      </c>
+      <c r="C108" t="n">
+        <v>101</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4824.1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>instance_0928_139852_Z2</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>34</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1334.3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>instance_0606_136187_Z2</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>10</v>
+      </c>
+      <c r="C110" t="n">
+        <v>40</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1504.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>instance_1120_141644_Z2</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>16</v>
+      </c>
+      <c r="C111" t="n">
+        <v>75</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>instance_0202_132576_Z2</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>321.8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>instance_0214_132884_Z1</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>61</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3641.1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>instance_0928_139879_Z1</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>30</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1131.4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>instance_0202_132579_Z1</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>23</v>
+      </c>
+      <c r="C115" t="n">
+        <v>99</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4654.5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>instance_0203_132605_Z2</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>13</v>
+      </c>
+      <c r="C116" t="n">
+        <v>58</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>instance_1124_141850_Z2</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>37</v>
+      </c>
+      <c r="C117" t="n">
+        <v>160</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7272.1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>instance_1121_141681_Z1</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>39</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1216.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>instance_0201_132530_Z1</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" t="n">
+        <v>697.4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>instance_1121_141704_Z2</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>36</v>
+      </c>
+      <c r="C120" t="n">
+        <v>146</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>instance_0130_132434_Z2</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>347.2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>instance_0925_139700_Z2</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>18</v>
+      </c>
+      <c r="C122" t="n">
+        <v>82</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4136.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>instance_0928_139881_Z2</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>63</v>
+      </c>
+      <c r="C123" t="n">
+        <v>268</v>
+      </c>
+      <c r="D123" t="n">
+        <v>10974.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>instance_0928_139877_Z2</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>14</v>
+      </c>
+      <c r="C124" t="n">
+        <v>60</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2152.4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>instance_1121_141701_Z1</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>31</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1135.7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>instance_0116_131971_Z2</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>20</v>
+      </c>
+      <c r="C126" t="n">
+        <v>87</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5502.1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>instance_0116_131957_Z2</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>21</v>
+      </c>
+      <c r="C127" t="n">
+        <v>79</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2338.5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>instance_0926_139754_Z2</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>24</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1379.5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>instance_1121_141701_Z2</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>23</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1221.7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>instance_0928_139863_Z2</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>12</v>
+      </c>
+      <c r="C130" t="n">
+        <v>55</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2114.9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>instance_0926_139765_Z2</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>27</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1588.8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>instance_1120_141648_Z1</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>68</v>
+      </c>
+      <c r="C132" t="n">
+        <v>292</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11536.6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>instance_0202_132582_Z2</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>21</v>
+      </c>
+      <c r="D133" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>instance_0925_139720_Z1</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>23</v>
+      </c>
+      <c r="C134" t="n">
+        <v>103</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5302.8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>instance_0202_132573_Z2</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>22</v>
+      </c>
+      <c r="C135" t="n">
+        <v>96</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3684.3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>instance_0116_131952_Z2</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>36</v>
+      </c>
+      <c r="C136" t="n">
+        <v>151</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7165.5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>instance_0130_132435_Z2</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>30</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1154.1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>instance_1121_141679_Z1</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>48</v>
+      </c>
+      <c r="C138" t="n">
+        <v>209</v>
+      </c>
+      <c r="D138" t="n">
+        <v>7073.2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>instance_0926_139782_Z1</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>45</v>
+      </c>
+      <c r="C139" t="n">
+        <v>186</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9858.1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>instance_0215_132908_Z2</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>34</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1008.3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>instance_0925_139711_Z1</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>38</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2007.6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>instance_0925_139733_Z2</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>30</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1029.1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>instance_0214_132883_Z2</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>18</v>
+      </c>
+      <c r="C143" t="n">
+        <v>74</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4005.2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>instance_0201_132545_Z1</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>32</v>
+      </c>
+      <c r="C144" t="n">
+        <v>129</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5994.4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>instance_1124_141841_Z2</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>14</v>
+      </c>
+      <c r="D145" t="n">
+        <v>948.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>instance_0203_132613_Z1</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>336.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>instance_1124_141846_Z1</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>71</v>
+      </c>
+      <c r="C147" t="n">
+        <v>299</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12501.1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>instance_0927_139831_Z1</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>73</v>
+      </c>
+      <c r="C148" t="n">
+        <v>314</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11832.3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>instance_0203_132615_Z1</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>18</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1089.9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>instance_0202_132581_Z1</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>33</v>
+      </c>
+      <c r="C150" t="n">
+        <v>136</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6157.4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>instance_0116_131955_Z2</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>13</v>
+      </c>
+      <c r="C151" t="n">
+        <v>60</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1707.7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>instance_0925_139706_Z2</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>50</v>
+      </c>
+      <c r="C152" t="n">
+        <v>207</v>
+      </c>
+      <c r="D152" t="n">
+        <v>10476.2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>instance_0214_132890_Z2</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>8</v>
+      </c>
+      <c r="C153" t="n">
+        <v>34</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1051.6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>instance_1122_141734_Z1</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>22</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1234.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>instance_1122_141737_Z1</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>35</v>
+      </c>
+      <c r="C155" t="n">
+        <v>149</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5703.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>instance_0927_139833_Z1</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>11</v>
+      </c>
+      <c r="C156" t="n">
+        <v>50</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1120.1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>instance_1123_141800_Z2</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>88</v>
+      </c>
+      <c r="C157" t="n">
+        <v>362</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15459.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>instance_0130_132438_Z1</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>34</v>
+      </c>
+      <c r="C158" t="n">
+        <v>149</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6714.7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>instance_0116_131936_Z1</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>44</v>
+      </c>
+      <c r="C159" t="n">
+        <v>188</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6329.6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>instance_1120_141644_Z1</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>35</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1048.5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>instance_0116_131957_Z1</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>34</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1269.6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>instance_0606_136192_Z2</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>97</v>
+      </c>
+      <c r="C162" t="n">
+        <v>406</v>
+      </c>
+      <c r="D162" t="n">
+        <v>16822.7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>instance_1121_141705_Z1</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>123</v>
+      </c>
+      <c r="C163" t="n">
+        <v>497</v>
+      </c>
+      <c r="D163" t="n">
+        <v>16991.4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>instance_0202_132568_Z1</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>4</v>
+      </c>
+      <c r="C164" t="n">
+        <v>22</v>
+      </c>
+      <c r="D164" t="n">
+        <v>959.3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>instance_1121_141702_Z1</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>20</v>
+      </c>
+      <c r="C165" t="n">
+        <v>80</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2006.7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>instance_0202_132582_Z1</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>26</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1055.9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>instance_0606_136175_Z1</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>10</v>
+      </c>
+      <c r="D167" t="n">
+        <v>842.6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>instance_1121_141676_Z1</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>15</v>
+      </c>
+      <c r="C168" t="n">
+        <v>64</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2064.4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>instance_0116_131956_Z2</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>74</v>
+      </c>
+      <c r="C169" t="n">
+        <v>315</v>
+      </c>
+      <c r="D169" t="n">
+        <v>13864.2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>instance_0116_131948_Z1</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>19</v>
+      </c>
+      <c r="D170" t="n">
+        <v>866.4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>instance_1122_141758_Z1</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>35</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1269.9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>instance_0116_131973_Z2</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>37</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2188.2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>instance_0926_139757_Z1</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>15</v>
+      </c>
+      <c r="C173" t="n">
+        <v>62</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3688.7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>instance_1124_141850_Z1</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>42</v>
+      </c>
+      <c r="C174" t="n">
+        <v>180</v>
+      </c>
+      <c r="D174" t="n">
+        <v>7255.7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>instance_1121_141702_Z2</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>26</v>
+      </c>
+      <c r="C175" t="n">
+        <v>118</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2791.6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>instance_0925_139704_Z2</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>4</v>
+      </c>
+      <c r="C176" t="n">
+        <v>19</v>
+      </c>
+      <c r="D176" t="n">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>instance_1124_141861_Z1</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>68</v>
+      </c>
+      <c r="C177" t="n">
+        <v>287</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11663.9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>instance_0130_132452_Z2</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>568.6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>instance_0130_132434_Z1</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>8</v>
+      </c>
+      <c r="D179" t="n">
+        <v>662.9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>instance_0606_136213_Z1</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>484.1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>instance_0925_139722_Z2</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>21</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1106.3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>instance_0927_139807_Z1</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>6</v>
+      </c>
+      <c r="C182" t="n">
+        <v>27</v>
+      </c>
+      <c r="D182" t="n">
+        <v>996.3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>instance_0215_132925_Z1</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>7</v>
+      </c>
+      <c r="C183" t="n">
+        <v>30</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1067.8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>instance_1121_141676_Z2</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>32</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1372.9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>instance_0201_132536_Z1</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>353.2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>instance_1123_141810_Z2</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>35</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1823.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>instance_1124_141855_Z1</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>27</v>
+      </c>
+      <c r="C187" t="n">
+        <v>125</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>instance_0214_132888_Z1</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>13</v>
+      </c>
+      <c r="C188" t="n">
+        <v>57</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1483.2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>instance_0214_132889_Z2</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>48</v>
+      </c>
+      <c r="C189" t="n">
+        <v>196</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3314.7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>instance_0606_136178_Z1</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>77</v>
+      </c>
+      <c r="C190" t="n">
+        <v>320</v>
+      </c>
+      <c r="D190" t="n">
+        <v>15345.1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>instance_0925_139725_Z1</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>23</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1270.1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>instance_1123_141796_Z1</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12</v>
+      </c>
+      <c r="D192" t="n">
+        <v>721.6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>instance_0606_136190_Z1</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>51</v>
+      </c>
+      <c r="C193" t="n">
+        <v>215</v>
+      </c>
+      <c r="D193" t="n">
+        <v>10482.6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>instance_0214_132882_Z1</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>20</v>
+      </c>
+      <c r="D194" t="n">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>instance_0926_139772_Z2</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>16</v>
+      </c>
+      <c r="C195" t="n">
+        <v>71</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4159.1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>instance_0130_132428_Z1</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>54</v>
+      </c>
+      <c r="C196" t="n">
+        <v>219</v>
+      </c>
+      <c r="D196" t="n">
+        <v>10894.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>instance_0926_139780_Z2</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>7</v>
+      </c>
+      <c r="C197" t="n">
+        <v>33</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1093.5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>instance_0928_139867_Z1</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>7</v>
+      </c>
+      <c r="C198" t="n">
+        <v>31</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1125.2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>instance_1120_141647_Z1</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+      <c r="C199" t="n">
+        <v>13</v>
+      </c>
+      <c r="D199" t="n">
+        <v>572.8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>instance_0116_131981_Z2</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>33</v>
+      </c>
+      <c r="C200" t="n">
+        <v>136</v>
+      </c>
+      <c r="D200" t="n">
+        <v>6651.3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>instance_1124_141860_Z1</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>44</v>
+      </c>
+      <c r="C201" t="n">
+        <v>194</v>
+      </c>
+      <c r="D201" t="n">
+        <v>7727</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>instance_0926_139762_Z1</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>44</v>
+      </c>
+      <c r="C202" t="n">
+        <v>174</v>
+      </c>
+      <c r="D202" t="n">
+        <v>9756.799999999999</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>instance_0202_132578_Z2</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>5</v>
+      </c>
+      <c r="C203" t="n">
+        <v>23</v>
+      </c>
+      <c r="D203" t="n">
+        <v>926.1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>instance_1122_141761_Z2</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>65</v>
+      </c>
+      <c r="C204" t="n">
+        <v>271</v>
+      </c>
+      <c r="D204" t="n">
+        <v>12451.7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>instance_0130_132454_Z1</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>13</v>
+      </c>
+      <c r="C205" t="n">
+        <v>48</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3462.8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>instance_1121_141703_Z2</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>7</v>
+      </c>
+      <c r="C206" t="n">
+        <v>27</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1120.2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>instance_0203_132600_Z1</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>5</v>
+      </c>
+      <c r="C207" t="n">
+        <v>19</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1214.1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>instance_1121_141725_Z1</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>10</v>
+      </c>
+      <c r="D208" t="n">
+        <v>470.1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>instance_0202_132575_Z2</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>61</v>
+      </c>
+      <c r="C209" t="n">
+        <v>252</v>
+      </c>
+      <c r="D209" t="n">
+        <v>10481.5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>instance_0928_139863_Z1</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>19</v>
+      </c>
+      <c r="C210" t="n">
+        <v>82</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2588.3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>instance_0928_139877_Z1</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>18</v>
+      </c>
+      <c r="C211" t="n">
+        <v>77</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2460.6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>instance_0927_139824_Z1</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>17</v>
+      </c>
+      <c r="C212" t="n">
+        <v>72</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>instance_0201_132536_Z2</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5</v>
+      </c>
+      <c r="D213" t="n">
+        <v>313.7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>instance_0130_132436_Z1</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>37</v>
+      </c>
+      <c r="C214" t="n">
+        <v>148</v>
+      </c>
+      <c r="D214" t="n">
+        <v>6941</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>instance_0202_132578_Z1</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>5</v>
+      </c>
+      <c r="C215" t="n">
+        <v>22</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1124.7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>instance_1122_141754_Z1</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>12</v>
+      </c>
+      <c r="C216" t="n">
+        <v>53</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1591.9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>instance_0116_131956_Z1</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>164</v>
+      </c>
+      <c r="C217" t="n">
+        <v>685</v>
+      </c>
+      <c r="D217" t="n">
+        <v>20728.4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>instance_0928_139852_Z1</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>12</v>
+      </c>
+      <c r="C218" t="n">
+        <v>48</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1910.5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>instance_0130_132440_Z2</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>64</v>
+      </c>
+      <c r="C219" t="n">
+        <v>266</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11996.8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>instance_1121_141688_Z1</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>112</v>
+      </c>
+      <c r="C220" t="n">
+        <v>477</v>
+      </c>
+      <c r="D220" t="n">
+        <v>16087.1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>instance_0214_132885_Z1</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>20</v>
+      </c>
+      <c r="C221" t="n">
+        <v>80</v>
+      </c>
+      <c r="D221" t="n">
+        <v>5020.8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>instance_0214_132873_Z1</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>4</v>
+      </c>
+      <c r="C222" t="n">
+        <v>17</v>
+      </c>
+      <c r="D222" t="n">
+        <v>888.4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>instance_1122_141760_Z1</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>37</v>
+      </c>
+      <c r="C223" t="n">
+        <v>160</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3070.5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>instance_0928_139859_Z1</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>115</v>
+      </c>
+      <c r="C224" t="n">
+        <v>468</v>
+      </c>
+      <c r="D224" t="n">
+        <v>16301</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>instance_1121_141698_Z2</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>12</v>
+      </c>
+      <c r="C225" t="n">
+        <v>50</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2117.2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>instance_0215_132933_Z1</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>64</v>
+      </c>
+      <c r="C226" t="n">
+        <v>259</v>
+      </c>
+      <c r="D226" t="n">
+        <v>11961.9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>instance_0116_131948_Z2</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>3</v>
+      </c>
+      <c r="C227" t="n">
+        <v>14</v>
+      </c>
+      <c r="D227" t="n">
+        <v>752.4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>instance_1122_141731_Z1</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4</v>
+      </c>
+      <c r="D228" t="n">
+        <v>265.3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>instance_1121_141684_Z2</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+      <c r="C229" t="n">
+        <v>11</v>
+      </c>
+      <c r="D229" t="n">
+        <v>839.9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>instance_0201_132526_Z2</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>20</v>
+      </c>
+      <c r="C230" t="n">
+        <v>81</v>
+      </c>
+      <c r="D230" t="n">
+        <v>3561.3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>instance_0202_132597_Z2</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>12</v>
+      </c>
+      <c r="C231" t="n">
+        <v>52</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1158.9</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>instance_1122_141754_Z2</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>8</v>
+      </c>
+      <c r="C232" t="n">
+        <v>32</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1466.8</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>instance_0130_132426_Z2</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>3</v>
+      </c>
+      <c r="C233" t="n">
+        <v>13</v>
+      </c>
+      <c r="D233" t="n">
+        <v>540.1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>instance_0130_132422_Z1</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>20</v>
+      </c>
+      <c r="C234" t="n">
+        <v>85</v>
+      </c>
+      <c r="D234" t="n">
+        <v>4250.9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>instance_1124_141834_Z1</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>5</v>
+      </c>
+      <c r="C235" t="n">
+        <v>20</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1047.4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>instance_1120_141642_Z1</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>38</v>
+      </c>
+      <c r="C236" t="n">
+        <v>159</v>
+      </c>
+      <c r="D236" t="n">
+        <v>6333.4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>instance_0925_139697_Z1</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>4</v>
+      </c>
+      <c r="C237" t="n">
+        <v>19</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1062.4</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>instance_1122_141746_Z1</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>71</v>
+      </c>
+      <c r="C238" t="n">
+        <v>303</v>
+      </c>
+      <c r="D238" t="n">
+        <v>12180.5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>instance_0927_139814_Z2</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>3</v>
+      </c>
+      <c r="C239" t="n">
+        <v>12</v>
+      </c>
+      <c r="D239" t="n">
+        <v>698.7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>instance_0927_139834_Z1</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>35</v>
+      </c>
+      <c r="C240" t="n">
+        <v>161</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3040.4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>instance_0606_136193_Z1</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>17</v>
+      </c>
+      <c r="C241" t="n">
+        <v>66</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1941.4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>instance_0130_132420_Z1</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>9</v>
+      </c>
+      <c r="C242" t="n">
+        <v>35</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>instance_0130_132454_Z2</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>21</v>
+      </c>
+      <c r="C243" t="n">
+        <v>90</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5244.1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>instance_0925_139723_Z1</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>33</v>
+      </c>
+      <c r="C244" t="n">
+        <v>135</v>
+      </c>
+      <c r="D244" t="n">
+        <v>7461.1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>instance_1122_141743_Z2</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>43</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2156.8</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>instance_1123_141813_Z1</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>66</v>
+      </c>
+      <c r="C246" t="n">
+        <v>275</v>
+      </c>
+      <c r="D246" t="n">
+        <v>11623.8</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>instance_0214_132885_Z2</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>23</v>
+      </c>
+      <c r="C247" t="n">
+        <v>104</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4845.9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>instance_0215_132913_Z1</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>19</v>
+      </c>
+      <c r="C248" t="n">
+        <v>72</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3932.3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>instance_0116_131942_Z2</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>58</v>
+      </c>
+      <c r="C249" t="n">
+        <v>245</v>
+      </c>
+      <c r="D249" t="n">
+        <v>12123.1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>instance_0606_136191_Z1</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>11</v>
+      </c>
+      <c r="C250" t="n">
+        <v>50</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1455.5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>instance_0926_139772_Z1</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>21</v>
+      </c>
+      <c r="C251" t="n">
+        <v>81</v>
+      </c>
+      <c r="D251" t="n">
+        <v>4943.5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>instance_0925_139733_Z1</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>11</v>
+      </c>
+      <c r="C252" t="n">
+        <v>48</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1425.6</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>instance_0214_132873_Z2</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>4</v>
+      </c>
+      <c r="C253" t="n">
+        <v>18</v>
+      </c>
+      <c r="D253" t="n">
+        <v>691.5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>instance_0927_139826_Z2</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>7</v>
+      </c>
+      <c r="C254" t="n">
+        <v>26</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1197.5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>instance_1120_141629_Z1</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>11</v>
+      </c>
+      <c r="C255" t="n">
+        <v>52</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2072.2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>instance_1120_141627_Z2</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>4</v>
+      </c>
+      <c r="C256" t="n">
+        <v>15</v>
+      </c>
+      <c r="D256" t="n">
+        <v>985.5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>instance_0116_131954_Z2</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>46</v>
+      </c>
+      <c r="C257" t="n">
+        <v>195</v>
+      </c>
+      <c r="D257" t="n">
+        <v>9115.799999999999</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>instance_0203_132600_Z2</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>4</v>
+      </c>
+      <c r="C258" t="n">
+        <v>17</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1091.7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>instance_0925_139716_Z2</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>18</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1109.5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>instance_0927_139816_Z2</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>5</v>
+      </c>
+      <c r="C260" t="n">
+        <v>23</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1171.9</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>instance_0202_132573_Z1</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>20</v>
+      </c>
+      <c r="C261" t="n">
+        <v>81</v>
+      </c>
+      <c r="D261" t="n">
+        <v>3972.7</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>instance_0926_139783_Z2</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>16</v>
+      </c>
+      <c r="C262" t="n">
+        <v>66</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1894.2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>instance_1122_141734_Z2</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>5</v>
+      </c>
+      <c r="C263" t="n">
+        <v>18</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1650.4</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>instance_1123_141788_Z2</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>5</v>
+      </c>
+      <c r="C264" t="n">
+        <v>22</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1537.9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>instance_1121_141725_Z2</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>5</v>
+      </c>
+      <c r="D265" t="n">
+        <v>446.5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>instance_0926_139774_Z2</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>21</v>
+      </c>
+      <c r="C266" t="n">
+        <v>87</v>
+      </c>
+      <c r="D266" t="n">
+        <v>4915.2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>instance_0214_132883_Z1</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>13</v>
+      </c>
+      <c r="C267" t="n">
+        <v>51</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3408.7</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>instance_0201_132540_Z2</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>32</v>
+      </c>
+      <c r="C268" t="n">
+        <v>135</v>
+      </c>
+      <c r="D268" t="n">
+        <v>5676.2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>instance_0215_132933_Z2</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>67</v>
+      </c>
+      <c r="C269" t="n">
+        <v>287</v>
+      </c>
+      <c r="D269" t="n">
+        <v>10481.2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>instance_0606_136194_Z1</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>6</v>
+      </c>
+      <c r="C270" t="n">
+        <v>24</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1394.3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>instance_0926_139754_Z1</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>3</v>
+      </c>
+      <c r="C271" t="n">
+        <v>16</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1132.5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>instance_0928_139849_Z1</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>5</v>
+      </c>
+      <c r="C272" t="n">
+        <v>18</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1039.1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>instance_0116_131954_Z1</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>83</v>
+      </c>
+      <c r="C273" t="n">
+        <v>344</v>
+      </c>
+      <c r="D273" t="n">
+        <v>11561.7</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>instance_0606_136186_Z1</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>4</v>
+      </c>
+      <c r="C274" t="n">
+        <v>20</v>
+      </c>
+      <c r="D274" t="n">
+        <v>951.4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>instance_0203_132609_Z1</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>36</v>
+      </c>
+      <c r="C275" t="n">
+        <v>144</v>
+      </c>
+      <c r="D275" t="n">
+        <v>8360.299999999999</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>instance_0215_132931_Z2</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>43</v>
+      </c>
+      <c r="C276" t="n">
+        <v>165</v>
+      </c>
+      <c r="D276" t="n">
+        <v>7142.7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>instance_0925_139722_Z1</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>4</v>
+      </c>
+      <c r="C277" t="n">
+        <v>20</v>
+      </c>
+      <c r="D277" t="n">
+        <v>990.9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>instance_0203_132620_Z1</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>15</v>
+      </c>
+      <c r="C278" t="n">
+        <v>62</v>
+      </c>
+      <c r="D278" t="n">
+        <v>4099.2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>instance_1120_141645_Z1</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>5</v>
+      </c>
+      <c r="C279" t="n">
+        <v>22</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1002.5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>instance_0606_136189_Z2</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>40</v>
+      </c>
+      <c r="C280" t="n">
+        <v>174</v>
+      </c>
+      <c r="D280" t="n">
+        <v>6792.2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>instance_1124_141861_Z2</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>66</v>
+      </c>
+      <c r="C281" t="n">
+        <v>271</v>
+      </c>
+      <c r="D281" t="n">
+        <v>12343.5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>instance_0203_132621_Z2</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>22</v>
+      </c>
+      <c r="C282" t="n">
+        <v>92</v>
+      </c>
+      <c r="D282" t="n">
+        <v>4863.2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>instance_0201_132545_Z2</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>34</v>
+      </c>
+      <c r="C283" t="n">
+        <v>148</v>
+      </c>
+      <c r="D283" t="n">
+        <v>6098.6</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>instance_0606_136188_Z1</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>43</v>
+      </c>
+      <c r="C284" t="n">
+        <v>173</v>
+      </c>
+      <c r="D284" t="n">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>instance_0130_132418_Z1</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>3</v>
+      </c>
+      <c r="C285" t="n">
+        <v>17</v>
+      </c>
+      <c r="D285" t="n">
+        <v>691.9</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>instance_0202_132568_Z2</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>5</v>
+      </c>
+      <c r="C286" t="n">
+        <v>25</v>
+      </c>
+      <c r="D286" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>instance_0215_132916_Z2</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+      <c r="C287" t="n">
+        <v>8</v>
+      </c>
+      <c r="D287" t="n">
+        <v>465.8</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>instance_0606_136190_Z2</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>60</v>
+      </c>
+      <c r="C288" t="n">
+        <v>253</v>
+      </c>
+      <c r="D288" t="n">
+        <v>11201.1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>instance_0926_139777_Z2</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>12</v>
+      </c>
+      <c r="C289" t="n">
+        <v>49</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1124.7</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>instance_0215_132928_Z2</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>39</v>
+      </c>
+      <c r="C290" t="n">
+        <v>156</v>
+      </c>
+      <c r="D290" t="n">
+        <v>5728.7</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>instance_0925_139706_Z1</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>46</v>
+      </c>
+      <c r="C291" t="n">
+        <v>195</v>
+      </c>
+      <c r="D291" t="n">
+        <v>10690.1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>instance_0927_139818_Z1</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>45</v>
+      </c>
+      <c r="C292" t="n">
+        <v>193</v>
+      </c>
+      <c r="D292" t="n">
+        <v>7368.1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>instance_1122_141760_Z2</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>19</v>
+      </c>
+      <c r="C293" t="n">
+        <v>79</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2059.5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>instance_0203_132609_Z2</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>33</v>
+      </c>
+      <c r="C294" t="n">
+        <v>145</v>
+      </c>
+      <c r="D294" t="n">
+        <v>7259.1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>instance_0215_132923_Z1</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+      <c r="C295" t="n">
+        <v>8</v>
+      </c>
+      <c r="D295" t="n">
+        <v>636.2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>instance_0201_132522_Z1</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>4</v>
+      </c>
+      <c r="C296" t="n">
+        <v>19</v>
+      </c>
+      <c r="D296" t="n">
+        <v>862.9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>instance_0927_139826_Z1</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>7</v>
+      </c>
+      <c r="C297" t="n">
+        <v>35</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1058.1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>instance_0116_131933_Z2</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>10</v>
+      </c>
+      <c r="C298" t="n">
+        <v>45</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1302.2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>instance_1120_141641_Z1</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>8</v>
+      </c>
+      <c r="C299" t="n">
+        <v>35</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1264.8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>instance_1120_141618_Z2</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>7</v>
+      </c>
+      <c r="C300" t="n">
+        <v>30</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1623.7</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>instance_1121_141705_Z2</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>51</v>
+      </c>
+      <c r="C301" t="n">
+        <v>216</v>
+      </c>
+      <c r="D301" t="n">
+        <v>10788.1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>instance_1120_141647_Z2</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+      <c r="C302" t="n">
+        <v>8</v>
+      </c>
+      <c r="D302" t="n">
+        <v>475.5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>instance_0202_132581_Z2</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>38</v>
+      </c>
+      <c r="C303" t="n">
+        <v>154</v>
+      </c>
+      <c r="D303" t="n">
+        <v>6274.4</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>instance_0116_131950_Z1</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>21</v>
+      </c>
+      <c r="C304" t="n">
+        <v>84</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2191.4</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>instance_0926_139782_Z2</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>38</v>
+      </c>
+      <c r="C305" t="n">
+        <v>161</v>
+      </c>
+      <c r="D305" t="n">
+        <v>8682.5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>instance_0606_136170_Z1</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>23</v>
+      </c>
+      <c r="C306" t="n">
+        <v>101</v>
+      </c>
+      <c r="D306" t="n">
+        <v>4708.1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>instance_1121_141698_Z1</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>18</v>
+      </c>
+      <c r="C307" t="n">
+        <v>83</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2728.2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>instance_0130_132438_Z2</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>37</v>
+      </c>
+      <c r="C308" t="n">
+        <v>156</v>
+      </c>
+      <c r="D308" t="n">
+        <v>7181.6</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>instance_0927_139821_Z2</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>28</v>
+      </c>
+      <c r="C309" t="n">
+        <v>118</v>
+      </c>
+      <c r="D309" t="n">
+        <v>5274.4</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>instance_0925_139713_Z2</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2</v>
+      </c>
+      <c r="C310" t="n">
+        <v>8</v>
+      </c>
+      <c r="D310" t="n">
+        <v>685.2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>instance_0201_132531_Z2</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>55</v>
+      </c>
+      <c r="C311" t="n">
+        <v>227</v>
+      </c>
+      <c r="D311" t="n">
+        <v>10092.2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>instance_1121_141686_Z2</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>8</v>
+      </c>
+      <c r="C312" t="n">
+        <v>36</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1831.5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>instance_1120_141646_Z1</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>51</v>
+      </c>
+      <c r="C313" t="n">
+        <v>210</v>
+      </c>
+      <c r="D313" t="n">
+        <v>8782.9</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>instance_0214_132886_Z1</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>5</v>
+      </c>
+      <c r="C314" t="n">
+        <v>22</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1022.8</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>instance_1123_141812_Z1</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>41</v>
+      </c>
+      <c r="C315" t="n">
+        <v>162</v>
+      </c>
+      <c r="D315" t="n">
+        <v>7758.8</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>instance_0201_132543_Z1</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>28</v>
+      </c>
+      <c r="C316" t="n">
+        <v>120</v>
+      </c>
+      <c r="D316" t="n">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>instance_0606_136166_Z2</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>11</v>
+      </c>
+      <c r="C317" t="n">
+        <v>51</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1612.8</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>instance_1120_141621_Z1</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>32</v>
+      </c>
+      <c r="C318" t="n">
+        <v>137</v>
+      </c>
+      <c r="D318" t="n">
+        <v>5614.4</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>instance_1121_141684_Z1</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>6</v>
+      </c>
+      <c r="C319" t="n">
+        <v>23</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1153.8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>instance_1121_141688_Z2</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>54</v>
+      </c>
+      <c r="C320" t="n">
+        <v>212</v>
+      </c>
+      <c r="D320" t="n">
+        <v>11922.6</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>instance_1124_141855_Z2</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>30</v>
+      </c>
+      <c r="C321" t="n">
+        <v>119</v>
+      </c>
+      <c r="D321" t="n">
+        <v>6003.7</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>instance_0926_139781_Z1</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>26</v>
+      </c>
+      <c r="C322" t="n">
+        <v>110</v>
+      </c>
+      <c r="D322" t="n">
+        <v>6136.9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>instance_1124_141857_Z1</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>10</v>
+      </c>
+      <c r="C323" t="n">
+        <v>39</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1898.4</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>instance_0215_132918_Z2</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>67</v>
+      </c>
+      <c r="C324" t="n">
+        <v>275</v>
+      </c>
+      <c r="D324" t="n">
+        <v>11089.5</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>instance_1122_141743_Z1</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>13</v>
+      </c>
+      <c r="C325" t="n">
+        <v>57</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2185.1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>instance_0606_136195_Z1</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>8</v>
+      </c>
+      <c r="C326" t="n">
+        <v>36</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1694.8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>instance_0928_139872_Z2</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>36</v>
+      </c>
+      <c r="C327" t="n">
+        <v>149</v>
+      </c>
+      <c r="D327" t="n">
+        <v>5993.2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>instance_0130_132428_Z2</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>50</v>
+      </c>
+      <c r="C328" t="n">
+        <v>202</v>
+      </c>
+      <c r="D328" t="n">
+        <v>9944.799999999999</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>instance_0925_139718_Z2</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>33</v>
+      </c>
+      <c r="C329" t="n">
+        <v>134</v>
+      </c>
+      <c r="D329" t="n">
+        <v>6887.7</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>instance_0928_139882_Z1</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>6</v>
+      </c>
+      <c r="C330" t="n">
+        <v>25</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1637.8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>instance_1123_141806_Z2</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>9</v>
+      </c>
+      <c r="C331" t="n">
+        <v>45</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1312.1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>instance_1120_141625_Z2</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>5</v>
+      </c>
+      <c r="C332" t="n">
+        <v>25</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1150.5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>instance_0201_132547_Z2</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>68</v>
+      </c>
+      <c r="C333" t="n">
+        <v>275</v>
+      </c>
+      <c r="D333" t="n">
+        <v>11542.5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>instance_0201_132530_Z2</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>3</v>
+      </c>
+      <c r="C334" t="n">
+        <v>16</v>
+      </c>
+      <c r="D334" t="n">
+        <v>725.7</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>instance_0925_139697_Z2</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>6</v>
+      </c>
+      <c r="C335" t="n">
+        <v>23</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1283.6</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>instance_0202_132577_Z2</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>15</v>
+      </c>
+      <c r="C336" t="n">
+        <v>69</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1177.4</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>instance_0928_139883_Z2</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>2</v>
+      </c>
+      <c r="C337" t="n">
+        <v>10</v>
+      </c>
+      <c r="D337" t="n">
+        <v>473.5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>instance_1124_141853_Z1</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>8</v>
+      </c>
+      <c r="C338" t="n">
+        <v>39</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>instance_0926_139770_Z1</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>4</v>
+      </c>
+      <c r="C339" t="n">
+        <v>18</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1171.9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>instance_0928_139865_Z2</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>3</v>
+      </c>
+      <c r="C340" t="n">
+        <v>15</v>
+      </c>
+      <c r="D340" t="n">
+        <v>850.5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>instance_0214_132880_Z1</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>30</v>
+      </c>
+      <c r="C341" t="n">
+        <v>117</v>
+      </c>
+      <c r="D341" t="n">
+        <v>7879.1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>instance_1123_141791_Z1</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>28</v>
+      </c>
+      <c r="C342" t="n">
+        <v>114</v>
+      </c>
+      <c r="D342" t="n">
+        <v>5637.8</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>instance_0926_139770_Z2</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>3</v>
+      </c>
+      <c r="C343" t="n">
+        <v>17</v>
+      </c>
+      <c r="D343" t="n">
+        <v>966.3</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>instance_1120_141643_Z2</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>22</v>
+      </c>
+      <c r="C344" t="n">
+        <v>96</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2843.9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>instance_0927_139816_Z1</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>6</v>
+      </c>
+      <c r="C345" t="n">
+        <v>29</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1099.1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>instance_1120_141646_Z2</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>54</v>
+      </c>
+      <c r="C346" t="n">
+        <v>223</v>
+      </c>
+      <c r="D346" t="n">
+        <v>9436.6</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>instance_0927_139829_Z2</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>30</v>
+      </c>
+      <c r="C347" t="n">
+        <v>129</v>
+      </c>
+      <c r="D347" t="n">
+        <v>7265.3</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>instance_1122_141757_Z1</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>11</v>
+      </c>
+      <c r="C348" t="n">
+        <v>44</v>
+      </c>
+      <c r="D348" t="n">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>instance_0925_139724_Z1</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>46</v>
+      </c>
+      <c r="C349" t="n">
+        <v>201</v>
+      </c>
+      <c r="D349" t="n">
+        <v>10186.2</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>instance_1120_141648_Z2</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>76</v>
+      </c>
+      <c r="C350" t="n">
+        <v>318</v>
+      </c>
+      <c r="D350" t="n">
+        <v>13279.4</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>instance_1123_141806_Z1</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>9</v>
+      </c>
+      <c r="C351" t="n">
+        <v>40</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1392.1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>instance_0130_132418_Z2</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>8</v>
+      </c>
+      <c r="C352" t="n">
+        <v>34</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1215.1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>instance_0202_132580_Z2</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>22</v>
+      </c>
+      <c r="C353" t="n">
+        <v>100</v>
+      </c>
+      <c r="D353" t="n">
+        <v>4223.9</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>instance_0214_132884_Z2</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>15</v>
+      </c>
+      <c r="C354" t="n">
+        <v>65</v>
+      </c>
+      <c r="D354" t="n">
+        <v>3341.2</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>instance_0928_139855_Z2</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>26</v>
+      </c>
+      <c r="C355" t="n">
+        <v>112</v>
+      </c>
+      <c r="D355" t="n">
+        <v>4912.2</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>instance_1124_141853_Z2</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>7</v>
+      </c>
+      <c r="C356" t="n">
+        <v>31</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1281.9</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>instance_0925_139723_Z2</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>34</v>
+      </c>
+      <c r="C357" t="n">
+        <v>141</v>
+      </c>
+      <c r="D357" t="n">
+        <v>7458.3</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>instance_0215_132923_Z2</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>3</v>
+      </c>
+      <c r="C358" t="n">
+        <v>13</v>
+      </c>
+      <c r="D358" t="n">
+        <v>616.8</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>instance_0606_136187_Z1</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>10</v>
+      </c>
+      <c r="C359" t="n">
+        <v>42</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>instance_0201_132547_Z1</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>52</v>
+      </c>
+      <c r="C360" t="n">
+        <v>225</v>
+      </c>
+      <c r="D360" t="n">
+        <v>9859</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>instance_1121_141693_Z1</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>15</v>
+      </c>
+      <c r="C361" t="n">
+        <v>70</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1737.5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>instance_0215_132908_Z1</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>5</v>
+      </c>
+      <c r="C362" t="n">
+        <v>25</v>
+      </c>
+      <c r="D362" t="n">
+        <v>977.5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>instance_0926_139780_Z1</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>7</v>
+      </c>
+      <c r="C363" t="n">
+        <v>31</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1344.7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>instance_0215_132931_Z1</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>32</v>
+      </c>
+      <c r="C364" t="n">
+        <v>132</v>
+      </c>
+      <c r="D364" t="n">
+        <v>6619.1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>instance_1120_141625_Z1</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>4</v>
+      </c>
+      <c r="C365" t="n">
+        <v>23</v>
+      </c>
+      <c r="D365" t="n">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>instance_0926_139790_Z1</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>5</v>
+      </c>
+      <c r="C366" t="n">
+        <v>19</v>
+      </c>
+      <c r="D366" t="n">
+        <v>917.1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>instance_1121_141691_Z1</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>63</v>
+      </c>
+      <c r="C367" t="n">
+        <v>268</v>
+      </c>
+      <c r="D367" t="n">
+        <v>8725.1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>instance_0203_132621_Z1</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>21</v>
+      </c>
+      <c r="C368" t="n">
+        <v>90</v>
+      </c>
+      <c r="D368" t="n">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>instance_1122_141750_Z1</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>58</v>
+      </c>
+      <c r="C369" t="n">
+        <v>252</v>
+      </c>
+      <c r="D369" t="n">
+        <v>8446.700000000001</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>instance_0202_132580_Z1</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>28</v>
+      </c>
+      <c r="C370" t="n">
+        <v>116</v>
+      </c>
+      <c r="D370" t="n">
+        <v>5101.9</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>instance_0130_132440_Z1</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>70</v>
+      </c>
+      <c r="C371" t="n">
+        <v>302</v>
+      </c>
+      <c r="D371" t="n">
+        <v>12446.1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>instance_0215_132913_Z2</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>23</v>
+      </c>
+      <c r="C372" t="n">
+        <v>101</v>
+      </c>
+      <c r="D372" t="n">
+        <v>3776.3</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>instance_1124_141834_Z2</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>6</v>
+      </c>
+      <c r="C373" t="n">
+        <v>27</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1331.9</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>instance_1120_141627_Z1</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>3</v>
+      </c>
+      <c r="C374" t="n">
+        <v>12</v>
+      </c>
+      <c r="D374" t="n">
+        <v>718.3</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>instance_1123_141800_Z1</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>57</v>
+      </c>
+      <c r="C375" t="n">
+        <v>242</v>
+      </c>
+      <c r="D375" t="n">
+        <v>11280.2</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>instance_1122_141750_Z2</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>39</v>
+      </c>
+      <c r="C376" t="n">
+        <v>170</v>
+      </c>
+      <c r="D376" t="n">
+        <v>7556.3</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>instance_0928_139869_Z2</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>36</v>
+      </c>
+      <c r="C377" t="n">
+        <v>151</v>
+      </c>
+      <c r="D377" t="n">
+        <v>6091.8</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>instance_0928_139857_Z2</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>5</v>
+      </c>
+      <c r="C378" t="n">
+        <v>23</v>
+      </c>
+      <c r="D378" t="n">
+        <v>963.4</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>instance_0201_132549_Z1</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>7</v>
+      </c>
+      <c r="C379" t="n">
+        <v>30</v>
+      </c>
+      <c r="D379" t="n">
+        <v>901.2</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>instance_0116_131942_Z1</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>112</v>
+      </c>
+      <c r="C380" t="n">
+        <v>493</v>
+      </c>
+      <c r="D380" t="n">
+        <v>15582.7</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>instance_0926_139757_Z2</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>20</v>
+      </c>
+      <c r="C381" t="n">
+        <v>83</v>
+      </c>
+      <c r="D381" t="n">
+        <v>4765.2</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>instance_0203_132617_Z2</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>20</v>
+      </c>
+      <c r="C382" t="n">
+        <v>85</v>
+      </c>
+      <c r="D382" t="n">
+        <v>4244.1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>instance_0925_139720_Z2</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>24</v>
+      </c>
+      <c r="C383" t="n">
+        <v>98</v>
+      </c>
+      <c r="D383" t="n">
+        <v>5306.4</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>instance_0214_132889_Z1</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>24</v>
+      </c>
+      <c r="C384" t="n">
+        <v>102</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>instance_0203_132617_Z1</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>21</v>
+      </c>
+      <c r="C385" t="n">
+        <v>100</v>
+      </c>
+      <c r="D385" t="n">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>instance_1123_141797_Z1</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>5</v>
+      </c>
+      <c r="C386" t="n">
+        <v>28</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>instance_1123_141793_Z1</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>6</v>
+      </c>
+      <c r="C387" t="n">
+        <v>28</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1062.8</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>instance_1123_141803_Z1</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>34</v>
+      </c>
+      <c r="C388" t="n">
+        <v>144</v>
+      </c>
+      <c r="D388" t="n">
+        <v>6018.5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>instance_1120_141639_Z1</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>44</v>
+      </c>
+      <c r="C389" t="n">
+        <v>191</v>
+      </c>
+      <c r="D389" t="n">
+        <v>7325</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>instance_1120_141629_Z2</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>12</v>
+      </c>
+      <c r="C390" t="n">
+        <v>48</v>
+      </c>
+      <c r="D390" t="n">
+        <v>2406.2</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>instance_0606_136192_Z1</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>88</v>
+      </c>
+      <c r="C391" t="n">
+        <v>357</v>
+      </c>
+      <c r="D391" t="n">
+        <v>16210.3</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>instance_0928_139849_Z2</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>4</v>
+      </c>
+      <c r="C392" t="n">
+        <v>15</v>
+      </c>
+      <c r="D392" t="n">
+        <v>885.5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>instance_0116_131953_Z2</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>32</v>
+      </c>
+      <c r="C393" t="n">
+        <v>136</v>
+      </c>
+      <c r="D393" t="n">
+        <v>6215.8</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>instance_0925_139713_Z1</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>2</v>
+      </c>
+      <c r="C394" t="n">
+        <v>8</v>
+      </c>
+      <c r="D394" t="n">
+        <v>597.3</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>instance_0606_136213_Z2</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>2</v>
+      </c>
+      <c r="C395" t="n">
+        <v>10</v>
+      </c>
+      <c r="D395" t="n">
+        <v>601.7</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>instance_0215_132925_Z2</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>6</v>
+      </c>
+      <c r="C396" t="n">
+        <v>26</v>
+      </c>
+      <c r="D396" t="n">
+        <v>875.1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>instance_1121_141693_Z2</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>8</v>
+      </c>
+      <c r="C397" t="n">
+        <v>31</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1606.8</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>instance_1123_141803_Z2</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>44</v>
+      </c>
+      <c r="C398" t="n">
+        <v>186</v>
+      </c>
+      <c r="D398" t="n">
+        <v>7794.2</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>instance_0130_132437_Z2</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>29</v>
+      </c>
+      <c r="C399" t="n">
+        <v>122</v>
+      </c>
+      <c r="D399" t="n">
+        <v>5377.4</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>instance_1124_141839_Z2</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>5</v>
+      </c>
+      <c r="C400" t="n">
+        <v>23</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1340.1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>instance_0203_132620_Z2</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>15</v>
+      </c>
+      <c r="C401" t="n">
+        <v>61</v>
+      </c>
+      <c r="D401" t="n">
+        <v>3841.2</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>instance_0201_132546_Z1</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>6</v>
+      </c>
+      <c r="C402" t="n">
+        <v>27</v>
+      </c>
+      <c r="D402" t="n">
+        <v>955.5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>instance_1122_141761_Z1</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>88</v>
+      </c>
+      <c r="C403" t="n">
+        <v>351</v>
+      </c>
+      <c r="D403" t="n">
+        <v>13687.5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>instance_0928_139865_Z1</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>4</v>
+      </c>
+      <c r="C404" t="n">
+        <v>18</v>
+      </c>
+      <c r="D404" t="n">
+        <v>629.9</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>instance_0928_139879_Z2</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>6</v>
+      </c>
+      <c r="C405" t="n">
+        <v>29</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1045.4</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>instance_0203_132613_Z2</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+      <c r="C406" t="n">
+        <v>4</v>
+      </c>
+      <c r="D406" t="n">
+        <v>339.1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>instance_1123_141811_Z1</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>5</v>
+      </c>
+      <c r="C407" t="n">
+        <v>22</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1139.3</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>instance_0606_136191_Z2</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>15</v>
+      </c>
+      <c r="C408" t="n">
+        <v>64</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1877.4</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>instance_0130_132436_Z2</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>32</v>
+      </c>
+      <c r="C409" t="n">
+        <v>144</v>
+      </c>
+      <c r="D409" t="n">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>instance_0201_132522_Z2</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>5</v>
+      </c>
+      <c r="C410" t="n">
+        <v>22</v>
+      </c>
+      <c r="D410" t="n">
+        <v>1014.1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>instance_0215_132930_Z1</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>24</v>
+      </c>
+      <c r="C411" t="n">
+        <v>100</v>
+      </c>
+      <c r="D411" t="n">
+        <v>4733.5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>instance_0130_132422_Z2</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>18</v>
+      </c>
+      <c r="C412" t="n">
+        <v>79</v>
+      </c>
+      <c r="D412" t="n">
+        <v>3854.2</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>instance_0203_132622_Z1</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>6</v>
+      </c>
+      <c r="C413" t="n">
+        <v>25</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1182.7</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>instance_0201_132538_Z1</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>6</v>
+      </c>
+      <c r="C414" t="n">
+        <v>26</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1194.3</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>instance_0606_136178_Z2</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>96</v>
+      </c>
+      <c r="C415" t="n">
+        <v>402</v>
+      </c>
+      <c r="D415" t="n">
+        <v>17119.3</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>instance_1124_141836_Z1</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>31</v>
+      </c>
+      <c r="C416" t="n">
+        <v>120</v>
+      </c>
+      <c r="D416" t="n">
+        <v>5688.4</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>instance_0201_132540_Z1</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>32</v>
+      </c>
+      <c r="C417" t="n">
+        <v>131</v>
+      </c>
+      <c r="D417" t="n">
+        <v>5870.8</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>instance_1120_141618_Z1</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>6</v>
+      </c>
+      <c r="C418" t="n">
+        <v>29</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1239.3</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>instance_1120_141639_Z2</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>45</v>
+      </c>
+      <c r="C419" t="n">
+        <v>192</v>
+      </c>
+      <c r="D419" t="n">
+        <v>8396.4</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>instance_0214_132877_Z1</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>11</v>
+      </c>
+      <c r="C420" t="n">
+        <v>47</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2735.6</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>instance_0130_132426_Z1</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>2</v>
+      </c>
+      <c r="C421" t="n">
+        <v>10</v>
+      </c>
+      <c r="D421" t="n">
+        <v>687.5</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>instance_0214_132877_Z2</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>18</v>
+      </c>
+      <c r="C422" t="n">
+        <v>77</v>
+      </c>
+      <c r="D422" t="n">
+        <v>3521.1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>instance_1123_141796_Z2</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>3</v>
+      </c>
+      <c r="C423" t="n">
+        <v>13</v>
+      </c>
+      <c r="D423" t="n">
+        <v>912.5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>instance_0214_132879_Z2</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+      <c r="C424" t="n">
+        <v>6</v>
+      </c>
+      <c r="D424" t="n">
+        <v>274.7</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>instance_0215_132932_Z2</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>8</v>
+      </c>
+      <c r="C425" t="n">
+        <v>33</v>
+      </c>
+      <c r="D425" t="n">
+        <v>1072.9</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>instance_0201_132546_Z2</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>5</v>
+      </c>
+      <c r="C426" t="n">
+        <v>22</v>
+      </c>
+      <c r="D426" t="n">
+        <v>1047.4</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>instance_1122_141739_Z1</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>7</v>
+      </c>
+      <c r="C427" t="n">
+        <v>31</v>
+      </c>
+      <c r="D427" t="n">
+        <v>1157.1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>instance_1122_141759_Z2</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>37</v>
+      </c>
+      <c r="C428" t="n">
+        <v>161</v>
+      </c>
+      <c r="D428" t="n">
+        <v>7508.7</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>instance_0130_132435_Z1</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>9</v>
+      </c>
+      <c r="C429" t="n">
+        <v>37</v>
+      </c>
+      <c r="D429" t="n">
+        <v>1310.4</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>instance_0928_139880_Z2</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>45</v>
+      </c>
+      <c r="C430" t="n">
+        <v>182</v>
+      </c>
+      <c r="D430" t="n">
+        <v>7759.6</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>instance_0926_139779_Z1</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>7</v>
+      </c>
+      <c r="C431" t="n">
+        <v>32</v>
+      </c>
+      <c r="D431" t="n">
+        <v>1634.4</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>instance_0202_132575_Z1</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>53</v>
+      </c>
+      <c r="C432" t="n">
+        <v>231</v>
+      </c>
+      <c r="D432" t="n">
+        <v>10106</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>instance_0606_136194_Z2</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>3</v>
+      </c>
+      <c r="C433" t="n">
+        <v>14</v>
+      </c>
+      <c r="D433" t="n">
+        <v>1129.7</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>instance_0925_139718_Z1</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>30</v>
+      </c>
+      <c r="C434" t="n">
+        <v>126</v>
+      </c>
+      <c r="D434" t="n">
+        <v>6932.9</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>instance_0606_136186_Z2</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>4</v>
+      </c>
+      <c r="C435" t="n">
+        <v>21</v>
+      </c>
+      <c r="D435" t="n">
+        <v>936.6</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>instance_0214_132882_Z2</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>4</v>
+      </c>
+      <c r="C436" t="n">
+        <v>15</v>
+      </c>
+      <c r="D436" t="n">
+        <v>777.1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>instance_0927_139834_Z2</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>42</v>
+      </c>
+      <c r="C437" t="n">
+        <v>192</v>
+      </c>
+      <c r="D437" t="n">
+        <v>3280.1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>instance_0202_132579_Z2</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>29</v>
+      </c>
+      <c r="C438" t="n">
+        <v>118</v>
+      </c>
+      <c r="D438" t="n">
+        <v>4945.8</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>instance_0926_139781_Z2</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>25</v>
+      </c>
+      <c r="C439" t="n">
+        <v>99</v>
+      </c>
+      <c r="D439" t="n">
+        <v>6310.7</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>instance_0214_132887_Z2</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>42</v>
+      </c>
+      <c r="C440" t="n">
+        <v>160</v>
+      </c>
+      <c r="D440" t="n">
+        <v>8721.799999999999</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>instance_0927_139833_Z2</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>16</v>
+      </c>
+      <c r="C441" t="n">
+        <v>74</v>
+      </c>
+      <c r="D441" t="n">
+        <v>1309.3</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>instance_0927_139799_Z2</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>3</v>
+      </c>
+      <c r="C442" t="n">
+        <v>12</v>
+      </c>
+      <c r="D442" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>instance_0130_132452_Z1</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+      <c r="C443" t="n">
+        <v>6</v>
+      </c>
+      <c r="D443" t="n">
+        <v>356.8</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>instance_0925_139721_Z1</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>8</v>
+      </c>
+      <c r="C444" t="n">
+        <v>37</v>
+      </c>
+      <c r="D444" t="n">
+        <v>1830.2</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>instance_1121_141691_Z2</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>27</v>
+      </c>
+      <c r="C445" t="n">
+        <v>119</v>
+      </c>
+      <c r="D445" t="n">
+        <v>5707.9</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>instance_1124_141860_Z2</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>44</v>
+      </c>
+      <c r="C446" t="n">
+        <v>177</v>
+      </c>
+      <c r="D446" t="n">
+        <v>8449.299999999999</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>instance_0202_132584_Z2</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>13</v>
+      </c>
+      <c r="C447" t="n">
+        <v>52</v>
+      </c>
+      <c r="D447" t="n">
+        <v>1254.2</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>instance_1124_141836_Z2</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>27</v>
+      </c>
+      <c r="C448" t="n">
+        <v>117</v>
+      </c>
+      <c r="D448" t="n">
+        <v>5690.1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>instance_0926_139779_Z2</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>4</v>
+      </c>
+      <c r="C449" t="n">
+        <v>19</v>
+      </c>
+      <c r="D449" t="n">
+        <v>1220.3</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>instance_1120_141645_Z2</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>6</v>
+      </c>
+      <c r="C450" t="n">
+        <v>22</v>
+      </c>
+      <c r="D450" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>instance_0927_139818_Z2</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>30</v>
+      </c>
+      <c r="C451" t="n">
+        <v>131</v>
+      </c>
+      <c r="D451" t="n">
+        <v>6571.8</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>instance_0926_139774_Z1</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>20</v>
+      </c>
+      <c r="C452" t="n">
+        <v>89</v>
+      </c>
+      <c r="D452" t="n">
+        <v>4555.6</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>instance_0202_132597_Z1</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>10</v>
+      </c>
+      <c r="C453" t="n">
+        <v>39</v>
+      </c>
+      <c r="D453" t="n">
+        <v>1204.1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>instance_1121_141703_Z1</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>10</v>
+      </c>
+      <c r="C454" t="n">
+        <v>48</v>
+      </c>
+      <c r="D454" t="n">
+        <v>1284.5</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>instance_1123_141791_Z2</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>34</v>
+      </c>
+      <c r="C455" t="n">
+        <v>145</v>
+      </c>
+      <c r="D455" t="n">
+        <v>6208.7</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>instance_0203_132605_Z1</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>15</v>
+      </c>
+      <c r="C456" t="n">
+        <v>60</v>
+      </c>
+      <c r="D456" t="n">
+        <v>3434.6</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>instance_0927_139814_Z1</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>4</v>
+      </c>
+      <c r="C457" t="n">
+        <v>17</v>
+      </c>
+      <c r="D457" t="n">
+        <v>1104.1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>instance_0116_131950_Z2</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>8</v>
+      </c>
+      <c r="C458" t="n">
+        <v>34</v>
+      </c>
+      <c r="D458" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>instance_0130_132439_Z1</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>10</v>
+      </c>
+      <c r="C459" t="n">
+        <v>49</v>
+      </c>
+      <c r="D459" t="n">
+        <v>1398.7</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>instance_1120_141621_Z2</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>37</v>
+      </c>
+      <c r="C460" t="n">
+        <v>155</v>
+      </c>
+      <c r="D460" t="n">
+        <v>6545.8</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>instance_1123_141809_Z2</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>37</v>
+      </c>
+      <c r="C461" t="n">
+        <v>150</v>
+      </c>
+      <c r="D461" t="n">
+        <v>6957.6</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>instance_0116_131940_Z2</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>2</v>
+      </c>
+      <c r="C462" t="n">
+        <v>12</v>
+      </c>
+      <c r="D462" t="n">
+        <v>565.9</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>instance_0116_131973_Z1</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>14</v>
+      </c>
+      <c r="C463" t="n">
+        <v>59</v>
+      </c>
+      <c r="D463" t="n">
+        <v>2825.9</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>instance_0214_132886_Z2</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>4</v>
+      </c>
+      <c r="C464" t="n">
+        <v>19</v>
+      </c>
+      <c r="D464" t="n">
+        <v>674.1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>instance_0606_136195_Z2</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>10</v>
+      </c>
+      <c r="C465" t="n">
+        <v>46</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1805.6</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>instance_0926_139790_Z2</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>4</v>
+      </c>
+      <c r="C466" t="n">
+        <v>19</v>
+      </c>
+      <c r="D466" t="n">
+        <v>835.4</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>instance_0606_136189_Z1</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>35</v>
+      </c>
+      <c r="C467" t="n">
+        <v>152</v>
+      </c>
+      <c r="D467" t="n">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>instance_1122_141742_Z2</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>3</v>
+      </c>
+      <c r="C468" t="n">
+        <v>14</v>
+      </c>
+      <c r="D468" t="n">
+        <v>847.6</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>instance_0927_139809_Z2</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>41</v>
+      </c>
+      <c r="C469" t="n">
+        <v>184</v>
+      </c>
+      <c r="D469" t="n">
+        <v>9804.700000000001</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>instance_0925_139743_Z1</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+      <c r="C470" t="n">
+        <v>2</v>
+      </c>
+      <c r="D470" t="n">
+        <v>379.9</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>instance_0214_132887_Z1</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>36</v>
+      </c>
+      <c r="C471" t="n">
+        <v>140</v>
+      </c>
+      <c r="D471" t="n">
+        <v>8817.9</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>instance_1120_141642_Z2</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>38</v>
+      </c>
+      <c r="C472" t="n">
+        <v>163</v>
+      </c>
+      <c r="D472" t="n">
+        <v>6781.6</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>instance_0925_139711_Z2</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>7</v>
+      </c>
+      <c r="C473" t="n">
+        <v>30</v>
+      </c>
+      <c r="D473" t="n">
+        <v>1736.8</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>instance_1122_141746_Z2</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>63</v>
+      </c>
+      <c r="C474" t="n">
+        <v>260</v>
+      </c>
+      <c r="D474" t="n">
+        <v>12335.1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>instance_0116_131971_Z1</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>11</v>
+      </c>
+      <c r="C475" t="n">
+        <v>50</v>
+      </c>
+      <c r="D475" t="n">
+        <v>2600.3</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>instance_0927_139821_Z1</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>38</v>
+      </c>
+      <c r="C476" t="n">
+        <v>161</v>
+      </c>
+      <c r="D476" t="n">
+        <v>6072.1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>instance_0214_132888_Z2</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>11</v>
+      </c>
+      <c r="C477" t="n">
+        <v>49</v>
+      </c>
+      <c r="D477" t="n">
+        <v>1141.7</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>instance_0927_139802_Z2</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>6</v>
+      </c>
+      <c r="C478" t="n">
+        <v>25</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1368.4</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>instance_1120_141643_Z1</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>22</v>
+      </c>
+      <c r="C479" t="n">
+        <v>100</v>
+      </c>
+      <c r="D479" t="n">
+        <v>2770.8</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>instance_1123_141809_Z1</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>26</v>
+      </c>
+      <c r="C480" t="n">
+        <v>118</v>
+      </c>
+      <c r="D480" t="n">
+        <v>5358.6</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>instance_0927_139805_Z1</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>30</v>
+      </c>
+      <c r="C481" t="n">
+        <v>130</v>
+      </c>
+      <c r="D481" t="n">
+        <v>5000.4</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>instance_1122_141756_Z2</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>27</v>
+      </c>
+      <c r="C482" t="n">
+        <v>115</v>
+      </c>
+      <c r="D482" t="n">
+        <v>5512.4</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>instance_0927_139812_Z2</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>8</v>
+      </c>
+      <c r="C483" t="n">
+        <v>38</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1748.8</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>instance_0928_139857_Z1</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>6</v>
+      </c>
+      <c r="C484" t="n">
+        <v>24</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1133.6</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>instance_0606_136166_Z1</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>9</v>
+      </c>
+      <c r="C485" t="n">
+        <v>37</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1389.8</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>instance_0926_139765_Z1</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>8</v>
+      </c>
+      <c r="C486" t="n">
+        <v>32</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1487.8</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>instance_0201_132526_Z1</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>16</v>
+      </c>
+      <c r="C487" t="n">
+        <v>68</v>
+      </c>
+      <c r="D487" t="n">
+        <v>3404.5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>instance_0130_132437_Z1</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>36</v>
+      </c>
+      <c r="C488" t="n">
+        <v>146</v>
+      </c>
+      <c r="D488" t="n">
+        <v>6746.9</v>
       </c>
     </row>
   </sheetData>

--- a/data/checker/results.xlsx
+++ b/data/checker/results.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" t="n">
         <v>356</v>
       </c>
       <c r="D3" t="n">
-        <v>14395.9</v>
+        <v>14718.9</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         <v>146</v>
       </c>
       <c r="D4" t="n">
-        <v>7581.7</v>
+        <v>7464.3</v>
       </c>
     </row>
     <row r="5">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>112</v>
       </c>
       <c r="D6" t="n">
-        <v>5537.3</v>
+        <v>5343.9</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>44</v>
       </c>
       <c r="D9" t="n">
-        <v>1570.4</v>
+        <v>1572.5</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         <v>70</v>
       </c>
       <c r="D10" t="n">
-        <v>2683.9</v>
+        <v>2642.7</v>
       </c>
     </row>
     <row r="11">
@@ -660,7 +660,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="n">
-        <v>1317.2</v>
+        <v>1477.8</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +676,7 @@
         <v>124</v>
       </c>
       <c r="D15" t="n">
-        <v>2660.6</v>
+        <v>2608.1</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>1082</v>
+        <v>1096.9</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
         <v>114</v>
       </c>
       <c r="D17" t="n">
-        <v>5334.1</v>
+        <v>5440.2</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>38</v>
       </c>
       <c r="D18" t="n">
-        <v>1735</v>
+        <v>1600.1</v>
       </c>
     </row>
     <row r="19">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
         <v>276</v>
       </c>
       <c r="D20" t="n">
-        <v>12799.9</v>
+        <v>12486.5</v>
       </c>
     </row>
     <row r="21">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
         <v>57</v>
       </c>
       <c r="D22" t="n">
-        <v>2343.4</v>
+        <v>2247.4</v>
       </c>
     </row>
     <row r="23">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" t="n">
         <v>207</v>
       </c>
       <c r="D26" t="n">
-        <v>8474</v>
+        <v>8259.200000000001</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
         <v>23</v>
       </c>
       <c r="D27" t="n">
-        <v>1085.2</v>
+        <v>1216.8</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
         <v>31</v>
       </c>
       <c r="D28" t="n">
-        <v>1130.3</v>
+        <v>1312.3</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
         <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>1375.5</v>
+        <v>984.1</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="n">
         <v>202</v>
       </c>
       <c r="D30" t="n">
-        <v>10704</v>
+        <v>10729.2</v>
       </c>
     </row>
     <row r="31">
@@ -932,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="n">
-        <v>1272.7</v>
+        <v>1139.7</v>
       </c>
     </row>
     <row r="32">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="n">
         <v>203</v>
       </c>
       <c r="D33" t="n">
-        <v>10553.2</v>
+        <v>10514.5</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="n">
         <v>39</v>
       </c>
       <c r="D34" t="n">
-        <v>1991</v>
+        <v>1985.7</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" t="n">
         <v>176</v>
       </c>
       <c r="D35" t="n">
-        <v>2956.2</v>
+        <v>2842.5</v>
       </c>
     </row>
     <row r="36">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>975.5</v>
+        <v>773.7</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
         <v>155</v>
       </c>
       <c r="D38" t="n">
-        <v>8302</v>
+        <v>8556.1</v>
       </c>
     </row>
     <row r="39">
@@ -1060,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="D39" t="n">
-        <v>758.9</v>
+        <v>850.3</v>
       </c>
     </row>
     <row r="40">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" t="n">
         <v>333</v>
       </c>
       <c r="D41" t="n">
-        <v>14879.9</v>
+        <v>14871.1</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" t="n">
         <v>83</v>
       </c>
       <c r="D42" t="n">
-        <v>3754</v>
+        <v>3849.9</v>
       </c>
     </row>
     <row r="43">
@@ -1124,7 +1124,7 @@
         <v>286</v>
       </c>
       <c r="D43" t="n">
-        <v>9459.5</v>
+        <v>9500.4</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C44" t="n">
         <v>250</v>
       </c>
       <c r="D44" t="n">
-        <v>8396.4</v>
+        <v>7837.6</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" t="n">
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>1409.8</v>
+        <v>1492.2</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" t="n">
         <v>176</v>
       </c>
       <c r="D46" t="n">
-        <v>9461.200000000001</v>
+        <v>9794.799999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
         <v>112</v>
       </c>
       <c r="D48" t="n">
-        <v>4760.4</v>
+        <v>4607.1</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" t="n">
         <v>166</v>
       </c>
       <c r="D49" t="n">
-        <v>6266.9</v>
+        <v>5834.1</v>
       </c>
     </row>
     <row r="50">
@@ -1252,7 +1252,7 @@
         <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>1935.8</v>
+        <v>1984.9</v>
       </c>
     </row>
     <row r="52">
@@ -1268,7 +1268,7 @@
         <v>158</v>
       </c>
       <c r="D52" t="n">
-        <v>6178</v>
+        <v>6381.7</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53" t="n">
         <v>344</v>
       </c>
       <c r="D53" t="n">
-        <v>13062.2</v>
+        <v>12777.3</v>
       </c>
     </row>
     <row r="54">
@@ -1300,7 +1300,7 @@
         <v>31</v>
       </c>
       <c r="D54" t="n">
-        <v>1243.4</v>
+        <v>1176.1</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C55" t="n">
         <v>115</v>
       </c>
       <c r="D55" t="n">
-        <v>5894.1</v>
+        <v>5312.3</v>
       </c>
     </row>
     <row r="56">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" t="n">
         <v>213</v>
       </c>
       <c r="D56" t="n">
-        <v>8798.299999999999</v>
+        <v>8521.700000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" t="n">
         <v>280</v>
       </c>
       <c r="D57" t="n">
-        <v>9153.200000000001</v>
+        <v>8899.6</v>
       </c>
     </row>
     <row r="58">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
         <v>29</v>
       </c>
       <c r="D58" t="n">
-        <v>1326.6</v>
+        <v>1336.1</v>
       </c>
     </row>
     <row r="59">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C59" t="n">
         <v>194</v>
       </c>
       <c r="D59" t="n">
-        <v>9596.4</v>
+        <v>10059.5</v>
       </c>
     </row>
     <row r="60">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="n">
         <v>46</v>
       </c>
       <c r="D60" t="n">
-        <v>1357.6</v>
+        <v>1343.7</v>
       </c>
     </row>
     <row r="61">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
         <v>129</v>
       </c>
       <c r="D61" t="n">
-        <v>5513.1</v>
+        <v>5484.6</v>
       </c>
     </row>
     <row r="62">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
         <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>914.2</v>
+        <v>889.5</v>
       </c>
     </row>
     <row r="63">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C63" t="n">
         <v>187</v>
       </c>
       <c r="D63" t="n">
-        <v>9617.4</v>
+        <v>9275.299999999999</v>
       </c>
     </row>
     <row r="64">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
         <v>33</v>
       </c>
       <c r="D64" t="n">
-        <v>1284.5</v>
+        <v>1356.1</v>
       </c>
     </row>
     <row r="65">
@@ -1476,7 +1476,7 @@
         <v>285</v>
       </c>
       <c r="D65" t="n">
-        <v>12255.3</v>
+        <v>12328.6</v>
       </c>
     </row>
     <row r="66">
@@ -1492,7 +1492,7 @@
         <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>1191.3</v>
+        <v>1055.5</v>
       </c>
     </row>
     <row r="67">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" t="n">
         <v>81</v>
       </c>
       <c r="D67" t="n">
-        <v>4599.3</v>
+        <v>4532.2</v>
       </c>
     </row>
     <row r="68">
@@ -1524,7 +1524,7 @@
         <v>73</v>
       </c>
       <c r="D68" t="n">
-        <v>1350.5</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="69">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="n">
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>1694</v>
+        <v>1562.6</v>
       </c>
     </row>
     <row r="71">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C71" t="n">
         <v>260</v>
       </c>
       <c r="D71" t="n">
-        <v>9580.700000000001</v>
+        <v>9521.4</v>
       </c>
     </row>
     <row r="72">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" t="n">
         <v>239</v>
       </c>
       <c r="D72" t="n">
-        <v>8315.700000000001</v>
+        <v>8448.299999999999</v>
       </c>
     </row>
     <row r="73">
@@ -1598,13 +1598,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C73" t="n">
         <v>321</v>
       </c>
       <c r="D73" t="n">
-        <v>12482.9</v>
+        <v>13147.1</v>
       </c>
     </row>
     <row r="74">
@@ -1620,7 +1620,7 @@
         <v>33</v>
       </c>
       <c r="D74" t="n">
-        <v>1347.9</v>
+        <v>1378.5</v>
       </c>
     </row>
     <row r="75">
@@ -1636,7 +1636,7 @@
         <v>52</v>
       </c>
       <c r="D75" t="n">
-        <v>1247.8</v>
+        <v>1254.4</v>
       </c>
     </row>
     <row r="76">
@@ -1652,7 +1652,7 @@
         <v>22</v>
       </c>
       <c r="D76" t="n">
-        <v>1244.2</v>
+        <v>1312.5</v>
       </c>
     </row>
     <row r="77">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
         <v>16</v>
       </c>
       <c r="D79" t="n">
-        <v>1235.5</v>
+        <v>850.4</v>
       </c>
     </row>
     <row r="80">
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C80" t="n">
         <v>228</v>
       </c>
       <c r="D80" t="n">
-        <v>9730.299999999999</v>
+        <v>9860.1</v>
       </c>
     </row>
     <row r="81">
@@ -1732,7 +1732,7 @@
         <v>107</v>
       </c>
       <c r="D81" t="n">
-        <v>5334.5</v>
+        <v>5395.3</v>
       </c>
     </row>
     <row r="82">
@@ -1748,7 +1748,7 @@
         <v>31</v>
       </c>
       <c r="D82" t="n">
-        <v>722.9</v>
+        <v>779.3</v>
       </c>
     </row>
     <row r="83">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="n">
         <v>23</v>
       </c>
       <c r="D83" t="n">
-        <v>1439.9</v>
+        <v>1357.2</v>
       </c>
     </row>
     <row r="84">
@@ -1780,7 +1780,7 @@
         <v>39</v>
       </c>
       <c r="D84" t="n">
-        <v>1174</v>
+        <v>1223.8</v>
       </c>
     </row>
     <row r="85">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" t="n">
         <v>314</v>
       </c>
       <c r="D85" t="n">
-        <v>12589.9</v>
+        <v>12513.1</v>
       </c>
     </row>
     <row r="86">
@@ -1806,13 +1806,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" t="n">
         <v>71</v>
       </c>
       <c r="D86" t="n">
-        <v>2547</v>
+        <v>2439.3</v>
       </c>
     </row>
     <row r="87">
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" t="n">
         <v>59</v>
       </c>
       <c r="D87" t="n">
-        <v>2113.5</v>
+        <v>2028.7</v>
       </c>
     </row>
     <row r="88">
@@ -1876,7 +1876,7 @@
         <v>13</v>
       </c>
       <c r="D90" t="n">
-        <v>769.3</v>
+        <v>788.2</v>
       </c>
     </row>
     <row r="91">
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C91" t="n">
         <v>158</v>
       </c>
       <c r="D91" t="n">
-        <v>7287.7</v>
+        <v>8205.200000000001</v>
       </c>
     </row>
     <row r="92">
@@ -1908,7 +1908,7 @@
         <v>51</v>
       </c>
       <c r="D92" t="n">
-        <v>1974.5</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="93">
@@ -1918,13 +1918,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C93" t="n">
         <v>109</v>
       </c>
       <c r="D93" t="n">
-        <v>4047.7</v>
+        <v>4163.9</v>
       </c>
     </row>
     <row r="94">
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C94" t="n">
         <v>284</v>
       </c>
       <c r="D94" t="n">
-        <v>9414.6</v>
+        <v>9717.299999999999</v>
       </c>
     </row>
     <row r="95">
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" t="n">
         <v>50</v>
       </c>
       <c r="D95" t="n">
-        <v>2111.7</v>
+        <v>2083.8</v>
       </c>
     </row>
     <row r="96">
@@ -1982,13 +1982,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C97" t="n">
         <v>21</v>
       </c>
       <c r="D97" t="n">
-        <v>1158.4</v>
+        <v>1185.9</v>
       </c>
     </row>
     <row r="98">
@@ -2004,7 +2004,7 @@
         <v>223</v>
       </c>
       <c r="D98" t="n">
-        <v>9738.5</v>
+        <v>9537.6</v>
       </c>
     </row>
     <row r="99">
@@ -2014,13 +2014,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C99" t="n">
         <v>324</v>
       </c>
       <c r="D99" t="n">
-        <v>11184.5</v>
+        <v>11185.7</v>
       </c>
     </row>
     <row r="100">
@@ -2052,7 +2052,7 @@
         <v>249</v>
       </c>
       <c r="D101" t="n">
-        <v>11364.2</v>
+        <v>11201.4</v>
       </c>
     </row>
     <row r="102">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
         <v>36</v>
       </c>
       <c r="D102" t="n">
-        <v>2035.4</v>
+        <v>1876.4</v>
       </c>
     </row>
     <row r="103">
@@ -2084,7 +2084,7 @@
         <v>28</v>
       </c>
       <c r="D103" t="n">
-        <v>1179</v>
+        <v>1048.7</v>
       </c>
     </row>
     <row r="104">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C105" t="n">
         <v>214</v>
       </c>
       <c r="D105" t="n">
-        <v>8736.700000000001</v>
+        <v>8636.5</v>
       </c>
     </row>
     <row r="106">
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C106" t="n">
         <v>194</v>
       </c>
       <c r="D106" t="n">
-        <v>6737.9</v>
+        <v>6848.9</v>
       </c>
     </row>
     <row r="107">
@@ -2148,7 +2148,7 @@
         <v>29</v>
       </c>
       <c r="D107" t="n">
-        <v>1341.6</v>
+        <v>1375.4</v>
       </c>
     </row>
     <row r="108">
@@ -2158,13 +2158,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C108" t="n">
         <v>101</v>
       </c>
       <c r="D108" t="n">
-        <v>4824.1</v>
+        <v>4547.1</v>
       </c>
     </row>
     <row r="109">
@@ -2180,7 +2180,7 @@
         <v>34</v>
       </c>
       <c r="D109" t="n">
-        <v>1334.3</v>
+        <v>1364.9</v>
       </c>
     </row>
     <row r="110">
@@ -2190,13 +2190,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110" t="n">
         <v>40</v>
       </c>
       <c r="D110" t="n">
-        <v>1504.3</v>
+        <v>1508.9</v>
       </c>
     </row>
     <row r="111">
@@ -2212,7 +2212,7 @@
         <v>75</v>
       </c>
       <c r="D111" t="n">
-        <v>2041</v>
+        <v>2107.1</v>
       </c>
     </row>
     <row r="112">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113" t="n">
         <v>61</v>
       </c>
       <c r="D113" t="n">
-        <v>3641.1</v>
+        <v>3999.2</v>
       </c>
     </row>
     <row r="114">
@@ -2260,7 +2260,7 @@
         <v>30</v>
       </c>
       <c r="D114" t="n">
-        <v>1131.4</v>
+        <v>1119.1</v>
       </c>
     </row>
     <row r="115">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C115" t="n">
         <v>99</v>
       </c>
       <c r="D115" t="n">
-        <v>4654.5</v>
+        <v>4796.3</v>
       </c>
     </row>
     <row r="116">
@@ -2292,7 +2292,7 @@
         <v>58</v>
       </c>
       <c r="D116" t="n">
-        <v>2969</v>
+        <v>2880.8</v>
       </c>
     </row>
     <row r="117">
@@ -2308,7 +2308,7 @@
         <v>160</v>
       </c>
       <c r="D117" t="n">
-        <v>7272.1</v>
+        <v>7430.3</v>
       </c>
     </row>
     <row r="118">
@@ -2324,7 +2324,7 @@
         <v>39</v>
       </c>
       <c r="D118" t="n">
-        <v>1216.9</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="119">
@@ -2356,7 +2356,7 @@
         <v>146</v>
       </c>
       <c r="D120" t="n">
-        <v>7880</v>
+        <v>7854.9</v>
       </c>
     </row>
     <row r="121">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C122" t="n">
         <v>82</v>
       </c>
       <c r="D122" t="n">
-        <v>4136.5</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="123">
@@ -2398,13 +2398,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C123" t="n">
         <v>268</v>
       </c>
       <c r="D123" t="n">
-        <v>10974.8</v>
+        <v>11428.2</v>
       </c>
     </row>
     <row r="124">
@@ -2420,7 +2420,7 @@
         <v>60</v>
       </c>
       <c r="D124" t="n">
-        <v>2152.4</v>
+        <v>2174.5</v>
       </c>
     </row>
     <row r="125">
@@ -2436,7 +2436,7 @@
         <v>31</v>
       </c>
       <c r="D125" t="n">
-        <v>1135.7</v>
+        <v>1219.3</v>
       </c>
     </row>
     <row r="126">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C126" t="n">
         <v>87</v>
       </c>
       <c r="D126" t="n">
-        <v>5502.1</v>
+        <v>6049.8</v>
       </c>
     </row>
     <row r="127">
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C127" t="n">
         <v>79</v>
       </c>
       <c r="D127" t="n">
-        <v>2338.5</v>
+        <v>2132.7</v>
       </c>
     </row>
     <row r="128">
@@ -2516,7 +2516,7 @@
         <v>55</v>
       </c>
       <c r="D130" t="n">
-        <v>2114.9</v>
+        <v>1946.6</v>
       </c>
     </row>
     <row r="131">
@@ -2532,7 +2532,7 @@
         <v>27</v>
       </c>
       <c r="D131" t="n">
-        <v>1588.8</v>
+        <v>1759.2</v>
       </c>
     </row>
     <row r="132">
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C132" t="n">
         <v>292</v>
       </c>
       <c r="D132" t="n">
-        <v>11536.6</v>
+        <v>11690.8</v>
       </c>
     </row>
     <row r="133">
@@ -2558,13 +2558,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C133" t="n">
         <v>21</v>
       </c>
       <c r="D133" t="n">
-        <v>963</v>
+        <v>909.5</v>
       </c>
     </row>
     <row r="134">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C134" t="n">
         <v>103</v>
       </c>
       <c r="D134" t="n">
-        <v>5302.8</v>
+        <v>5404.7</v>
       </c>
     </row>
     <row r="135">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C135" t="n">
         <v>96</v>
       </c>
       <c r="D135" t="n">
-        <v>3684.3</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="136">
@@ -2606,13 +2606,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C136" t="n">
         <v>151</v>
       </c>
       <c r="D136" t="n">
-        <v>7165.5</v>
+        <v>7439.9</v>
       </c>
     </row>
     <row r="137">
@@ -2628,7 +2628,7 @@
         <v>30</v>
       </c>
       <c r="D137" t="n">
-        <v>1154.1</v>
+        <v>1191.6</v>
       </c>
     </row>
     <row r="138">
@@ -2644,7 +2644,7 @@
         <v>209</v>
       </c>
       <c r="D138" t="n">
-        <v>7073.2</v>
+        <v>6942.1</v>
       </c>
     </row>
     <row r="139">
@@ -2660,7 +2660,7 @@
         <v>186</v>
       </c>
       <c r="D139" t="n">
-        <v>9858.1</v>
+        <v>9677.4</v>
       </c>
     </row>
     <row r="140">
@@ -2692,7 +2692,7 @@
         <v>38</v>
       </c>
       <c r="D141" t="n">
-        <v>2007.6</v>
+        <v>1905.1</v>
       </c>
     </row>
     <row r="142">
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="n">
         <v>30</v>
       </c>
       <c r="D142" t="n">
-        <v>1029.1</v>
+        <v>1060.5</v>
       </c>
     </row>
     <row r="143">
@@ -2724,7 +2724,7 @@
         <v>74</v>
       </c>
       <c r="D143" t="n">
-        <v>4005.2</v>
+        <v>3986.6</v>
       </c>
     </row>
     <row r="144">
@@ -2740,7 +2740,7 @@
         <v>129</v>
       </c>
       <c r="D144" t="n">
-        <v>5994.4</v>
+        <v>6003.4</v>
       </c>
     </row>
     <row r="145">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C147" t="n">
         <v>299</v>
       </c>
       <c r="D147" t="n">
-        <v>12501.1</v>
+        <v>12460.6</v>
       </c>
     </row>
     <row r="148">
@@ -2804,7 +2804,7 @@
         <v>314</v>
       </c>
       <c r="D148" t="n">
-        <v>11832.3</v>
+        <v>11910.7</v>
       </c>
     </row>
     <row r="149">
@@ -2836,7 +2836,7 @@
         <v>136</v>
       </c>
       <c r="D150" t="n">
-        <v>6157.4</v>
+        <v>6457.8</v>
       </c>
     </row>
     <row r="151">
@@ -2846,13 +2846,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C151" t="n">
         <v>60</v>
       </c>
       <c r="D151" t="n">
-        <v>1707.7</v>
+        <v>1816.4</v>
       </c>
     </row>
     <row r="152">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C152" t="n">
         <v>207</v>
       </c>
       <c r="D152" t="n">
-        <v>10476.2</v>
+        <v>10056.3</v>
       </c>
     </row>
     <row r="153">
@@ -2884,7 +2884,7 @@
         <v>34</v>
       </c>
       <c r="D153" t="n">
-        <v>1051.6</v>
+        <v>1088.4</v>
       </c>
     </row>
     <row r="154">
@@ -2900,7 +2900,7 @@
         <v>22</v>
       </c>
       <c r="D154" t="n">
-        <v>1234.5</v>
+        <v>1243.8</v>
       </c>
     </row>
     <row r="155">
@@ -2910,13 +2910,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C155" t="n">
         <v>149</v>
       </c>
       <c r="D155" t="n">
-        <v>5703.5</v>
+        <v>5330.2</v>
       </c>
     </row>
     <row r="156">
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C156" t="n">
         <v>50</v>
       </c>
       <c r="D156" t="n">
-        <v>1120.1</v>
+        <v>998.3</v>
       </c>
     </row>
     <row r="157">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C157" t="n">
         <v>362</v>
       </c>
       <c r="D157" t="n">
-        <v>15459.5</v>
+        <v>15676</v>
       </c>
     </row>
     <row r="158">
@@ -2964,7 +2964,7 @@
         <v>149</v>
       </c>
       <c r="D158" t="n">
-        <v>6714.7</v>
+        <v>6815.1</v>
       </c>
     </row>
     <row r="159">
@@ -2980,7 +2980,7 @@
         <v>188</v>
       </c>
       <c r="D159" t="n">
-        <v>6329.6</v>
+        <v>6235.1</v>
       </c>
     </row>
     <row r="160">
@@ -2990,13 +2990,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="n">
         <v>35</v>
       </c>
       <c r="D160" t="n">
-        <v>1048.5</v>
+        <v>1149.4</v>
       </c>
     </row>
     <row r="161">
@@ -3012,7 +3012,7 @@
         <v>34</v>
       </c>
       <c r="D161" t="n">
-        <v>1269.6</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="162">
@@ -3022,13 +3022,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C162" t="n">
         <v>406</v>
       </c>
       <c r="D162" t="n">
-        <v>16822.7</v>
+        <v>17259.1</v>
       </c>
     </row>
     <row r="163">
@@ -3038,13 +3038,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C163" t="n">
         <v>497</v>
       </c>
       <c r="D163" t="n">
-        <v>16991.4</v>
+        <v>16020.8</v>
       </c>
     </row>
     <row r="164">
@@ -3060,7 +3060,7 @@
         <v>22</v>
       </c>
       <c r="D164" t="n">
-        <v>959.3</v>
+        <v>842.2</v>
       </c>
     </row>
     <row r="165">
@@ -3070,13 +3070,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C165" t="n">
         <v>80</v>
       </c>
       <c r="D165" t="n">
-        <v>2006.7</v>
+        <v>2070.4</v>
       </c>
     </row>
     <row r="166">
@@ -3086,13 +3086,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="n">
         <v>26</v>
       </c>
       <c r="D166" t="n">
-        <v>1055.9</v>
+        <v>1213.6</v>
       </c>
     </row>
     <row r="167">
@@ -3124,7 +3124,7 @@
         <v>64</v>
       </c>
       <c r="D168" t="n">
-        <v>2064.4</v>
+        <v>2038.6</v>
       </c>
     </row>
     <row r="169">
@@ -3134,13 +3134,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C169" t="n">
         <v>315</v>
       </c>
       <c r="D169" t="n">
-        <v>13864.2</v>
+        <v>14556.2</v>
       </c>
     </row>
     <row r="170">
@@ -3172,7 +3172,7 @@
         <v>35</v>
       </c>
       <c r="D171" t="n">
-        <v>1269.9</v>
+        <v>1195.1</v>
       </c>
     </row>
     <row r="172">
@@ -3188,7 +3188,7 @@
         <v>37</v>
       </c>
       <c r="D172" t="n">
-        <v>2188.2</v>
+        <v>2104.8</v>
       </c>
     </row>
     <row r="173">
@@ -3198,13 +3198,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C173" t="n">
         <v>62</v>
       </c>
       <c r="D173" t="n">
-        <v>3688.7</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="174">
@@ -3214,13 +3214,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C174" t="n">
         <v>180</v>
       </c>
       <c r="D174" t="n">
-        <v>7255.7</v>
+        <v>7607.7</v>
       </c>
     </row>
     <row r="175">
@@ -3230,13 +3230,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C175" t="n">
         <v>118</v>
       </c>
       <c r="D175" t="n">
-        <v>2791.6</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="176">
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C177" t="n">
         <v>287</v>
       </c>
       <c r="D177" t="n">
-        <v>11663.9</v>
+        <v>11912</v>
       </c>
     </row>
     <row r="178">
@@ -3332,7 +3332,7 @@
         <v>21</v>
       </c>
       <c r="D181" t="n">
-        <v>1106.3</v>
+        <v>1173.6</v>
       </c>
     </row>
     <row r="182">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="n">
         <v>27</v>
       </c>
       <c r="D182" t="n">
-        <v>996.3</v>
+        <v>1141.6</v>
       </c>
     </row>
     <row r="183">
@@ -3358,13 +3358,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="n">
         <v>30</v>
       </c>
       <c r="D183" t="n">
-        <v>1067.8</v>
+        <v>1024.1</v>
       </c>
     </row>
     <row r="184">
@@ -3374,13 +3374,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="n">
         <v>32</v>
       </c>
       <c r="D184" t="n">
-        <v>1372.9</v>
+        <v>1425.4</v>
       </c>
     </row>
     <row r="185">
@@ -3412,7 +3412,7 @@
         <v>35</v>
       </c>
       <c r="D186" t="n">
-        <v>1823.5</v>
+        <v>1753.3</v>
       </c>
     </row>
     <row r="187">
@@ -3422,13 +3422,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C187" t="n">
         <v>125</v>
       </c>
       <c r="D187" t="n">
-        <v>4919</v>
+        <v>5277.6</v>
       </c>
     </row>
     <row r="188">
@@ -3444,7 +3444,7 @@
         <v>57</v>
       </c>
       <c r="D188" t="n">
-        <v>1483.2</v>
+        <v>1381.9</v>
       </c>
     </row>
     <row r="189">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C189" t="n">
         <v>196</v>
       </c>
       <c r="D189" t="n">
-        <v>3314.7</v>
+        <v>3354.2</v>
       </c>
     </row>
     <row r="190">
@@ -3470,13 +3470,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C190" t="n">
         <v>320</v>
       </c>
       <c r="D190" t="n">
-        <v>15345.1</v>
+        <v>15993.9</v>
       </c>
     </row>
     <row r="191">
@@ -3518,13 +3518,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C193" t="n">
         <v>215</v>
       </c>
       <c r="D193" t="n">
-        <v>10482.6</v>
+        <v>10306.2</v>
       </c>
     </row>
     <row r="194">
@@ -3540,7 +3540,7 @@
         <v>20</v>
       </c>
       <c r="D194" t="n">
-        <v>857</v>
+        <v>821</v>
       </c>
     </row>
     <row r="195">
@@ -3550,13 +3550,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C195" t="n">
         <v>71</v>
       </c>
       <c r="D195" t="n">
-        <v>4159.1</v>
+        <v>4292.5</v>
       </c>
     </row>
     <row r="196">
@@ -3566,13 +3566,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C196" t="n">
         <v>219</v>
       </c>
       <c r="D196" t="n">
-        <v>10894.3</v>
+        <v>10637</v>
       </c>
     </row>
     <row r="197">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="n">
         <v>33</v>
       </c>
       <c r="D197" t="n">
-        <v>1093.5</v>
+        <v>1047.6</v>
       </c>
     </row>
     <row r="198">
@@ -3598,13 +3598,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="n">
         <v>31</v>
       </c>
       <c r="D198" t="n">
-        <v>1125.2</v>
+        <v>1291.5</v>
       </c>
     </row>
     <row r="199">
@@ -3636,7 +3636,7 @@
         <v>136</v>
       </c>
       <c r="D200" t="n">
-        <v>6651.3</v>
+        <v>6489.1</v>
       </c>
     </row>
     <row r="201">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C201" t="n">
         <v>194</v>
       </c>
       <c r="D201" t="n">
-        <v>7727</v>
+        <v>8072.3</v>
       </c>
     </row>
     <row r="202">
@@ -3662,13 +3662,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C202" t="n">
         <v>174</v>
       </c>
       <c r="D202" t="n">
-        <v>9756.799999999999</v>
+        <v>9640.9</v>
       </c>
     </row>
     <row r="203">
@@ -3694,13 +3694,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C204" t="n">
         <v>271</v>
       </c>
       <c r="D204" t="n">
-        <v>12451.7</v>
+        <v>12431.1</v>
       </c>
     </row>
     <row r="205">
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C205" t="n">
         <v>48</v>
       </c>
       <c r="D205" t="n">
-        <v>3462.8</v>
+        <v>3271.4</v>
       </c>
     </row>
     <row r="206">
@@ -3726,13 +3726,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="n">
         <v>27</v>
       </c>
       <c r="D206" t="n">
-        <v>1120.2</v>
+        <v>1100.7</v>
       </c>
     </row>
     <row r="207">
@@ -3774,13 +3774,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C209" t="n">
         <v>252</v>
       </c>
       <c r="D209" t="n">
-        <v>10481.5</v>
+        <v>10193.2</v>
       </c>
     </row>
     <row r="210">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C210" t="n">
         <v>82</v>
       </c>
       <c r="D210" t="n">
-        <v>2588.3</v>
+        <v>2570.9</v>
       </c>
     </row>
     <row r="211">
@@ -3812,7 +3812,7 @@
         <v>77</v>
       </c>
       <c r="D211" t="n">
-        <v>2460.6</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="212">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C212" t="n">
         <v>72</v>
       </c>
       <c r="D212" t="n">
-        <v>2427</v>
+        <v>2302.8</v>
       </c>
     </row>
     <row r="213">
@@ -3854,13 +3854,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C214" t="n">
         <v>148</v>
       </c>
       <c r="D214" t="n">
-        <v>6941</v>
+        <v>6647.2</v>
       </c>
     </row>
     <row r="215">
@@ -3870,13 +3870,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="n">
         <v>22</v>
       </c>
       <c r="D215" t="n">
-        <v>1124.7</v>
+        <v>1116.7</v>
       </c>
     </row>
     <row r="216">
@@ -3886,13 +3886,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C216" t="n">
         <v>53</v>
       </c>
       <c r="D216" t="n">
-        <v>1591.9</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="217">
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C217" t="n">
         <v>685</v>
       </c>
       <c r="D217" t="n">
-        <v>20728.4</v>
+        <v>20953.7</v>
       </c>
     </row>
     <row r="218">
@@ -3924,7 +3924,7 @@
         <v>48</v>
       </c>
       <c r="D218" t="n">
-        <v>1910.5</v>
+        <v>1734.3</v>
       </c>
     </row>
     <row r="219">
@@ -3934,13 +3934,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C219" t="n">
         <v>266</v>
       </c>
       <c r="D219" t="n">
-        <v>11996.8</v>
+        <v>12209.8</v>
       </c>
     </row>
     <row r="220">
@@ -3950,13 +3950,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C220" t="n">
         <v>477</v>
       </c>
       <c r="D220" t="n">
-        <v>16087.1</v>
+        <v>16447.3</v>
       </c>
     </row>
     <row r="221">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C221" t="n">
         <v>80</v>
       </c>
       <c r="D221" t="n">
-        <v>5020.8</v>
+        <v>4872.1</v>
       </c>
     </row>
     <row r="222">
@@ -3998,13 +3998,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C223" t="n">
         <v>160</v>
       </c>
       <c r="D223" t="n">
-        <v>3070.5</v>
+        <v>2727.4</v>
       </c>
     </row>
     <row r="224">
@@ -4014,13 +4014,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C224" t="n">
         <v>468</v>
       </c>
       <c r="D224" t="n">
-        <v>16301</v>
+        <v>15909.9</v>
       </c>
     </row>
     <row r="225">
@@ -4036,7 +4036,7 @@
         <v>50</v>
       </c>
       <c r="D225" t="n">
-        <v>2117.2</v>
+        <v>2103.7</v>
       </c>
     </row>
     <row r="226">
@@ -4046,13 +4046,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C226" t="n">
         <v>259</v>
       </c>
       <c r="D226" t="n">
-        <v>11961.9</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="227">
@@ -4068,7 +4068,7 @@
         <v>14</v>
       </c>
       <c r="D227" t="n">
-        <v>752.4</v>
+        <v>840</v>
       </c>
     </row>
     <row r="228">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C230" t="n">
         <v>81</v>
       </c>
       <c r="D230" t="n">
-        <v>3561.3</v>
+        <v>3266.8</v>
       </c>
     </row>
     <row r="231">
@@ -4142,13 +4142,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="n">
         <v>32</v>
       </c>
       <c r="D232" t="n">
-        <v>1466.8</v>
+        <v>1405.5</v>
       </c>
     </row>
     <row r="233">
@@ -4174,13 +4174,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C234" t="n">
         <v>85</v>
       </c>
       <c r="D234" t="n">
-        <v>4250.9</v>
+        <v>3900.2</v>
       </c>
     </row>
     <row r="235">
@@ -4212,7 +4212,7 @@
         <v>159</v>
       </c>
       <c r="D236" t="n">
-        <v>6333.4</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="237">
@@ -4222,13 +4222,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C237" t="n">
         <v>19</v>
       </c>
       <c r="D237" t="n">
-        <v>1062.4</v>
+        <v>1303.3</v>
       </c>
     </row>
     <row r="238">
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C238" t="n">
         <v>303</v>
       </c>
       <c r="D238" t="n">
-        <v>12180.5</v>
+        <v>12230.8</v>
       </c>
     </row>
     <row r="239">
@@ -4270,13 +4270,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C240" t="n">
         <v>161</v>
       </c>
       <c r="D240" t="n">
-        <v>3040.4</v>
+        <v>3110.7</v>
       </c>
     </row>
     <row r="241">
@@ -4286,13 +4286,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C241" t="n">
         <v>66</v>
       </c>
       <c r="D241" t="n">
-        <v>1941.4</v>
+        <v>1857.6</v>
       </c>
     </row>
     <row r="242">
@@ -4308,7 +4308,7 @@
         <v>35</v>
       </c>
       <c r="D242" t="n">
-        <v>1334</v>
+        <v>1313.3</v>
       </c>
     </row>
     <row r="243">
@@ -4324,7 +4324,7 @@
         <v>90</v>
       </c>
       <c r="D243" t="n">
-        <v>5244.1</v>
+        <v>5201.5</v>
       </c>
     </row>
     <row r="244">
@@ -4340,7 +4340,7 @@
         <v>135</v>
       </c>
       <c r="D244" t="n">
-        <v>7461.1</v>
+        <v>7502.9</v>
       </c>
     </row>
     <row r="245">
@@ -4356,7 +4356,7 @@
         <v>43</v>
       </c>
       <c r="D245" t="n">
-        <v>2156.8</v>
+        <v>2021.3</v>
       </c>
     </row>
     <row r="246">
@@ -4366,13 +4366,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C246" t="n">
         <v>275</v>
       </c>
       <c r="D246" t="n">
-        <v>11623.8</v>
+        <v>11882</v>
       </c>
     </row>
     <row r="247">
@@ -4388,7 +4388,7 @@
         <v>104</v>
       </c>
       <c r="D247" t="n">
-        <v>4845.9</v>
+        <v>4734.4</v>
       </c>
     </row>
     <row r="248">
@@ -4398,13 +4398,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C248" t="n">
         <v>72</v>
       </c>
       <c r="D248" t="n">
-        <v>3932.3</v>
+        <v>3565.2</v>
       </c>
     </row>
     <row r="249">
@@ -4420,7 +4420,7 @@
         <v>245</v>
       </c>
       <c r="D249" t="n">
-        <v>12123.1</v>
+        <v>12099.2</v>
       </c>
     </row>
     <row r="250">
@@ -4430,13 +4430,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C250" t="n">
         <v>50</v>
       </c>
       <c r="D250" t="n">
-        <v>1455.5</v>
+        <v>1539.7</v>
       </c>
     </row>
     <row r="251">
@@ -4446,13 +4446,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C251" t="n">
         <v>81</v>
       </c>
       <c r="D251" t="n">
-        <v>4943.5</v>
+        <v>4583.9</v>
       </c>
     </row>
     <row r="252">
@@ -4468,7 +4468,7 @@
         <v>48</v>
       </c>
       <c r="D252" t="n">
-        <v>1425.6</v>
+        <v>1285.9</v>
       </c>
     </row>
     <row r="253">
@@ -4484,7 +4484,7 @@
         <v>18</v>
       </c>
       <c r="D253" t="n">
-        <v>691.5</v>
+        <v>851.3</v>
       </c>
     </row>
     <row r="254">
@@ -4494,13 +4494,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="n">
         <v>26</v>
       </c>
       <c r="D254" t="n">
-        <v>1197.5</v>
+        <v>1006.6</v>
       </c>
     </row>
     <row r="255">
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C255" t="n">
         <v>52</v>
       </c>
       <c r="D255" t="n">
-        <v>2072.2</v>
+        <v>2225.9</v>
       </c>
     </row>
     <row r="256">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C257" t="n">
         <v>195</v>
       </c>
       <c r="D257" t="n">
-        <v>9115.799999999999</v>
+        <v>9146.9</v>
       </c>
     </row>
     <row r="258">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C259" t="n">
         <v>18</v>
       </c>
       <c r="D259" t="n">
-        <v>1109.5</v>
+        <v>744.9</v>
       </c>
     </row>
     <row r="260">
@@ -4596,7 +4596,7 @@
         <v>23</v>
       </c>
       <c r="D260" t="n">
-        <v>1171.9</v>
+        <v>1255.9</v>
       </c>
     </row>
     <row r="261">
@@ -4606,13 +4606,13 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C261" t="n">
         <v>81</v>
       </c>
       <c r="D261" t="n">
-        <v>3972.7</v>
+        <v>3866.2</v>
       </c>
     </row>
     <row r="262">
@@ -4628,7 +4628,7 @@
         <v>66</v>
       </c>
       <c r="D262" t="n">
-        <v>1894.2</v>
+        <v>1914.1</v>
       </c>
     </row>
     <row r="263">
@@ -4660,7 +4660,7 @@
         <v>22</v>
       </c>
       <c r="D264" t="n">
-        <v>1537.9</v>
+        <v>1518.2</v>
       </c>
     </row>
     <row r="265">
@@ -4692,7 +4692,7 @@
         <v>87</v>
       </c>
       <c r="D266" t="n">
-        <v>4915.2</v>
+        <v>4781.1</v>
       </c>
     </row>
     <row r="267">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C267" t="n">
         <v>51</v>
       </c>
       <c r="D267" t="n">
-        <v>3408.7</v>
+        <v>3089.8</v>
       </c>
     </row>
     <row r="268">
@@ -4724,7 +4724,7 @@
         <v>135</v>
       </c>
       <c r="D268" t="n">
-        <v>5676.2</v>
+        <v>5469.8</v>
       </c>
     </row>
     <row r="269">
@@ -4734,13 +4734,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C269" t="n">
         <v>287</v>
       </c>
       <c r="D269" t="n">
-        <v>10481.2</v>
+        <v>10200.5</v>
       </c>
     </row>
     <row r="270">
@@ -4756,7 +4756,7 @@
         <v>24</v>
       </c>
       <c r="D270" t="n">
-        <v>1394.3</v>
+        <v>1203.6</v>
       </c>
     </row>
     <row r="271">
@@ -4772,7 +4772,7 @@
         <v>16</v>
       </c>
       <c r="D271" t="n">
-        <v>1132.5</v>
+        <v>1044.3</v>
       </c>
     </row>
     <row r="272">
@@ -4798,13 +4798,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C273" t="n">
         <v>344</v>
       </c>
       <c r="D273" t="n">
-        <v>11561.7</v>
+        <v>11380.5</v>
       </c>
     </row>
     <row r="274">
@@ -4814,13 +4814,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C274" t="n">
         <v>20</v>
       </c>
       <c r="D274" t="n">
-        <v>951.4</v>
+        <v>1056.9</v>
       </c>
     </row>
     <row r="275">
@@ -4836,7 +4836,7 @@
         <v>144</v>
       </c>
       <c r="D275" t="n">
-        <v>8360.299999999999</v>
+        <v>8478</v>
       </c>
     </row>
     <row r="276">
@@ -4846,13 +4846,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C276" t="n">
         <v>165</v>
       </c>
       <c r="D276" t="n">
-        <v>7142.7</v>
+        <v>6452.5</v>
       </c>
     </row>
     <row r="277">
@@ -4878,13 +4878,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C278" t="n">
         <v>62</v>
       </c>
       <c r="D278" t="n">
-        <v>4099.2</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="279">
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C279" t="n">
         <v>22</v>
       </c>
       <c r="D279" t="n">
-        <v>1002.5</v>
+        <v>817</v>
       </c>
     </row>
     <row r="280">
@@ -4910,13 +4910,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C280" t="n">
         <v>174</v>
       </c>
       <c r="D280" t="n">
-        <v>6792.2</v>
+        <v>7154.5</v>
       </c>
     </row>
     <row r="281">
@@ -4932,7 +4932,7 @@
         <v>271</v>
       </c>
       <c r="D281" t="n">
-        <v>12343.5</v>
+        <v>12284.2</v>
       </c>
     </row>
     <row r="282">
@@ -4942,13 +4942,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C282" t="n">
         <v>92</v>
       </c>
       <c r="D282" t="n">
-        <v>4863.2</v>
+        <v>4514.6</v>
       </c>
     </row>
     <row r="283">
@@ -4958,13 +4958,13 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C283" t="n">
         <v>148</v>
       </c>
       <c r="D283" t="n">
-        <v>6098.6</v>
+        <v>6167.7</v>
       </c>
     </row>
     <row r="284">
@@ -4974,13 +4974,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C284" t="n">
         <v>173</v>
       </c>
       <c r="D284" t="n">
-        <v>8052</v>
+        <v>7751.9</v>
       </c>
     </row>
     <row r="285">
@@ -4996,7 +4996,7 @@
         <v>17</v>
       </c>
       <c r="D285" t="n">
-        <v>691.9</v>
+        <v>738.7</v>
       </c>
     </row>
     <row r="286">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C288" t="n">
         <v>253</v>
       </c>
       <c r="D288" t="n">
-        <v>11201.1</v>
+        <v>11362.8</v>
       </c>
     </row>
     <row r="289">
@@ -5060,7 +5060,7 @@
         <v>49</v>
       </c>
       <c r="D289" t="n">
-        <v>1124.7</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="290">
@@ -5070,13 +5070,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C290" t="n">
         <v>156</v>
       </c>
       <c r="D290" t="n">
-        <v>5728.7</v>
+        <v>5436.8</v>
       </c>
     </row>
     <row r="291">
@@ -5086,13 +5086,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C291" t="n">
         <v>195</v>
       </c>
       <c r="D291" t="n">
-        <v>10690.1</v>
+        <v>10231.3</v>
       </c>
     </row>
     <row r="292">
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C292" t="n">
         <v>193</v>
       </c>
       <c r="D292" t="n">
-        <v>7368.1</v>
+        <v>7896.6</v>
       </c>
     </row>
     <row r="293">
@@ -5118,13 +5118,13 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C293" t="n">
         <v>79</v>
       </c>
       <c r="D293" t="n">
-        <v>2059.5</v>
+        <v>1864.3</v>
       </c>
     </row>
     <row r="294">
@@ -5134,13 +5134,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C294" t="n">
         <v>145</v>
       </c>
       <c r="D294" t="n">
-        <v>7259.1</v>
+        <v>7598.1</v>
       </c>
     </row>
     <row r="295">
@@ -5172,7 +5172,7 @@
         <v>19</v>
       </c>
       <c r="D296" t="n">
-        <v>862.9</v>
+        <v>958.8</v>
       </c>
     </row>
     <row r="297">
@@ -5188,7 +5188,7 @@
         <v>35</v>
       </c>
       <c r="D297" t="n">
-        <v>1058.1</v>
+        <v>1039.5</v>
       </c>
     </row>
     <row r="298">
@@ -5204,7 +5204,7 @@
         <v>45</v>
       </c>
       <c r="D298" t="n">
-        <v>1302.2</v>
+        <v>1288.7</v>
       </c>
     </row>
     <row r="299">
@@ -5220,7 +5220,7 @@
         <v>35</v>
       </c>
       <c r="D299" t="n">
-        <v>1264.8</v>
+        <v>1297.9</v>
       </c>
     </row>
     <row r="300">
@@ -5236,7 +5236,7 @@
         <v>30</v>
       </c>
       <c r="D300" t="n">
-        <v>1623.7</v>
+        <v>1620.1</v>
       </c>
     </row>
     <row r="301">
@@ -5252,7 +5252,7 @@
         <v>216</v>
       </c>
       <c r="D301" t="n">
-        <v>10788.1</v>
+        <v>10613.8</v>
       </c>
     </row>
     <row r="302">
@@ -5278,13 +5278,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C303" t="n">
         <v>154</v>
       </c>
       <c r="D303" t="n">
-        <v>6274.4</v>
+        <v>6660.2</v>
       </c>
     </row>
     <row r="304">
@@ -5294,13 +5294,13 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C304" t="n">
         <v>84</v>
       </c>
       <c r="D304" t="n">
-        <v>2191.4</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="305">
@@ -5316,7 +5316,7 @@
         <v>161</v>
       </c>
       <c r="D305" t="n">
-        <v>8682.5</v>
+        <v>8694.200000000001</v>
       </c>
     </row>
     <row r="306">
@@ -5326,13 +5326,13 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C306" t="n">
         <v>101</v>
       </c>
       <c r="D306" t="n">
-        <v>4708.1</v>
+        <v>4605.1</v>
       </c>
     </row>
     <row r="307">
@@ -5348,7 +5348,7 @@
         <v>83</v>
       </c>
       <c r="D307" t="n">
-        <v>2728.2</v>
+        <v>2744.8</v>
       </c>
     </row>
     <row r="308">
@@ -5358,13 +5358,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C308" t="n">
         <v>156</v>
       </c>
       <c r="D308" t="n">
-        <v>7181.6</v>
+        <v>6624.3</v>
       </c>
     </row>
     <row r="309">
@@ -5380,7 +5380,7 @@
         <v>118</v>
       </c>
       <c r="D309" t="n">
-        <v>5274.4</v>
+        <v>5497.2</v>
       </c>
     </row>
     <row r="310">
@@ -5406,13 +5406,13 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C311" t="n">
         <v>227</v>
       </c>
       <c r="D311" t="n">
-        <v>10092.2</v>
+        <v>10192.1</v>
       </c>
     </row>
     <row r="312">
@@ -5428,7 +5428,7 @@
         <v>36</v>
       </c>
       <c r="D312" t="n">
-        <v>1831.5</v>
+        <v>1821.4</v>
       </c>
     </row>
     <row r="313">
@@ -5444,7 +5444,7 @@
         <v>210</v>
       </c>
       <c r="D313" t="n">
-        <v>8782.9</v>
+        <v>8776.700000000001</v>
       </c>
     </row>
     <row r="314">
@@ -5460,7 +5460,7 @@
         <v>22</v>
       </c>
       <c r="D314" t="n">
-        <v>1022.8</v>
+        <v>1093.5</v>
       </c>
     </row>
     <row r="315">
@@ -5470,13 +5470,13 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C315" t="n">
         <v>162</v>
       </c>
       <c r="D315" t="n">
-        <v>7758.8</v>
+        <v>7183.2</v>
       </c>
     </row>
     <row r="316">
@@ -5486,13 +5486,13 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C316" t="n">
         <v>120</v>
       </c>
       <c r="D316" t="n">
-        <v>5017</v>
+        <v>5131.9</v>
       </c>
     </row>
     <row r="317">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C317" t="n">
         <v>51</v>
       </c>
       <c r="D317" t="n">
-        <v>1612.8</v>
+        <v>1549.8</v>
       </c>
     </row>
     <row r="318">
@@ -5518,13 +5518,13 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C318" t="n">
         <v>137</v>
       </c>
       <c r="D318" t="n">
-        <v>5614.4</v>
+        <v>5356.4</v>
       </c>
     </row>
     <row r="319">
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C320" t="n">
         <v>212</v>
       </c>
       <c r="D320" t="n">
-        <v>11922.6</v>
+        <v>11317.1</v>
       </c>
     </row>
     <row r="321">
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C321" t="n">
         <v>119</v>
       </c>
       <c r="D321" t="n">
-        <v>6003.7</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="322">
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C322" t="n">
         <v>110</v>
       </c>
       <c r="D322" t="n">
-        <v>6136.9</v>
+        <v>6277.3</v>
       </c>
     </row>
     <row r="323">
@@ -5598,13 +5598,13 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C323" t="n">
         <v>39</v>
       </c>
       <c r="D323" t="n">
-        <v>1898.4</v>
+        <v>1680.8</v>
       </c>
     </row>
     <row r="324">
@@ -5614,13 +5614,13 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C324" t="n">
         <v>275</v>
       </c>
       <c r="D324" t="n">
-        <v>11089.5</v>
+        <v>10243.9</v>
       </c>
     </row>
     <row r="325">
@@ -5630,13 +5630,13 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C325" t="n">
         <v>57</v>
       </c>
       <c r="D325" t="n">
-        <v>2185.1</v>
+        <v>2089.3</v>
       </c>
     </row>
     <row r="326">
@@ -5652,7 +5652,7 @@
         <v>36</v>
       </c>
       <c r="D326" t="n">
-        <v>1694.8</v>
+        <v>1704.8</v>
       </c>
     </row>
     <row r="327">
@@ -5668,7 +5668,7 @@
         <v>149</v>
       </c>
       <c r="D327" t="n">
-        <v>5993.2</v>
+        <v>5993.3</v>
       </c>
     </row>
     <row r="328">
@@ -5678,13 +5678,13 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C328" t="n">
         <v>202</v>
       </c>
       <c r="D328" t="n">
-        <v>9944.799999999999</v>
+        <v>9723.299999999999</v>
       </c>
     </row>
     <row r="329">
@@ -5694,13 +5694,13 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C329" t="n">
         <v>134</v>
       </c>
       <c r="D329" t="n">
-        <v>6887.7</v>
+        <v>6809.3</v>
       </c>
     </row>
     <row r="330">
@@ -5716,7 +5716,7 @@
         <v>25</v>
       </c>
       <c r="D330" t="n">
-        <v>1637.8</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="331">
@@ -5732,7 +5732,7 @@
         <v>45</v>
       </c>
       <c r="D331" t="n">
-        <v>1312.1</v>
+        <v>1292.3</v>
       </c>
     </row>
     <row r="332">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C332" t="n">
         <v>25</v>
       </c>
       <c r="D332" t="n">
-        <v>1150.5</v>
+        <v>1199.3</v>
       </c>
     </row>
     <row r="333">
@@ -5758,13 +5758,13 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C333" t="n">
         <v>275</v>
       </c>
       <c r="D333" t="n">
-        <v>11542.5</v>
+        <v>11157.7</v>
       </c>
     </row>
     <row r="334">
@@ -5790,13 +5790,13 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C335" t="n">
         <v>23</v>
       </c>
       <c r="D335" t="n">
-        <v>1283.6</v>
+        <v>997.7</v>
       </c>
     </row>
     <row r="336">
@@ -5806,13 +5806,13 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C336" t="n">
         <v>69</v>
       </c>
       <c r="D336" t="n">
-        <v>1177.4</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="337">
@@ -5838,13 +5838,13 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C338" t="n">
         <v>39</v>
       </c>
       <c r="D338" t="n">
-        <v>1253</v>
+        <v>1531.4</v>
       </c>
     </row>
     <row r="339">
@@ -5870,13 +5870,13 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C340" t="n">
         <v>15</v>
       </c>
       <c r="D340" t="n">
-        <v>850.5</v>
+        <v>905.9</v>
       </c>
     </row>
     <row r="341">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C341" t="n">
         <v>117</v>
       </c>
       <c r="D341" t="n">
-        <v>7879.1</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="342">
@@ -5902,13 +5902,13 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C342" t="n">
         <v>114</v>
       </c>
       <c r="D342" t="n">
-        <v>5637.8</v>
+        <v>5336.1</v>
       </c>
     </row>
     <row r="343">
@@ -5918,13 +5918,13 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C343" t="n">
         <v>17</v>
       </c>
       <c r="D343" t="n">
-        <v>966.3</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="344">
@@ -5940,7 +5940,7 @@
         <v>96</v>
       </c>
       <c r="D344" t="n">
-        <v>2843.9</v>
+        <v>2824.1</v>
       </c>
     </row>
     <row r="345">
@@ -5966,13 +5966,13 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C346" t="n">
         <v>223</v>
       </c>
       <c r="D346" t="n">
-        <v>9436.6</v>
+        <v>9463.700000000001</v>
       </c>
     </row>
     <row r="347">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C347" t="n">
         <v>129</v>
       </c>
       <c r="D347" t="n">
-        <v>7265.3</v>
+        <v>7387</v>
       </c>
     </row>
     <row r="348">
@@ -5998,13 +5998,13 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C348" t="n">
         <v>44</v>
       </c>
       <c r="D348" t="n">
-        <v>2004</v>
+        <v>1857.6</v>
       </c>
     </row>
     <row r="349">
@@ -6020,7 +6020,7 @@
         <v>201</v>
       </c>
       <c r="D349" t="n">
-        <v>10186.2</v>
+        <v>10291.9</v>
       </c>
     </row>
     <row r="350">
@@ -6030,13 +6030,13 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C350" t="n">
         <v>318</v>
       </c>
       <c r="D350" t="n">
-        <v>13279.4</v>
+        <v>13208.4</v>
       </c>
     </row>
     <row r="351">
@@ -6052,7 +6052,7 @@
         <v>40</v>
       </c>
       <c r="D351" t="n">
-        <v>1392.1</v>
+        <v>1347.3</v>
       </c>
     </row>
     <row r="352">
@@ -6068,7 +6068,7 @@
         <v>34</v>
       </c>
       <c r="D352" t="n">
-        <v>1215.1</v>
+        <v>1225.9</v>
       </c>
     </row>
     <row r="353">
@@ -6078,13 +6078,13 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C353" t="n">
         <v>100</v>
       </c>
       <c r="D353" t="n">
-        <v>4223.9</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="354">
@@ -6100,7 +6100,7 @@
         <v>65</v>
       </c>
       <c r="D354" t="n">
-        <v>3341.2</v>
+        <v>3209.8</v>
       </c>
     </row>
     <row r="355">
@@ -6116,7 +6116,7 @@
         <v>112</v>
       </c>
       <c r="D355" t="n">
-        <v>4912.2</v>
+        <v>4991.4</v>
       </c>
     </row>
     <row r="356">
@@ -6126,13 +6126,13 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C356" t="n">
         <v>31</v>
       </c>
       <c r="D356" t="n">
-        <v>1281.9</v>
+        <v>1347.8</v>
       </c>
     </row>
     <row r="357">
@@ -6142,13 +6142,13 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C357" t="n">
         <v>141</v>
       </c>
       <c r="D357" t="n">
-        <v>7458.3</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="358">
@@ -6164,7 +6164,7 @@
         <v>13</v>
       </c>
       <c r="D358" t="n">
-        <v>616.8</v>
+        <v>486.6</v>
       </c>
     </row>
     <row r="359">
@@ -6174,13 +6174,13 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C359" t="n">
         <v>42</v>
       </c>
       <c r="D359" t="n">
-        <v>1371</v>
+        <v>1271.7</v>
       </c>
     </row>
     <row r="360">
@@ -6190,13 +6190,13 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C360" t="n">
         <v>225</v>
       </c>
       <c r="D360" t="n">
-        <v>9859</v>
+        <v>10178.7</v>
       </c>
     </row>
     <row r="361">
@@ -6206,13 +6206,13 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C361" t="n">
         <v>70</v>
       </c>
       <c r="D361" t="n">
-        <v>1737.5</v>
+        <v>1836.8</v>
       </c>
     </row>
     <row r="362">
@@ -6228,7 +6228,7 @@
         <v>25</v>
       </c>
       <c r="D362" t="n">
-        <v>977.5</v>
+        <v>949.4</v>
       </c>
     </row>
     <row r="363">
@@ -6244,7 +6244,7 @@
         <v>31</v>
       </c>
       <c r="D363" t="n">
-        <v>1344.7</v>
+        <v>1214.6</v>
       </c>
     </row>
     <row r="364">
@@ -6260,7 +6260,7 @@
         <v>132</v>
       </c>
       <c r="D364" t="n">
-        <v>6619.1</v>
+        <v>6587.8</v>
       </c>
     </row>
     <row r="365">
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C365" t="n">
         <v>23</v>
       </c>
       <c r="D365" t="n">
-        <v>878</v>
+        <v>1063.5</v>
       </c>
     </row>
     <row r="366">
@@ -6292,7 +6292,7 @@
         <v>19</v>
       </c>
       <c r="D366" t="n">
-        <v>917.1</v>
+        <v>912.6</v>
       </c>
     </row>
     <row r="367">
@@ -6302,13 +6302,13 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C367" t="n">
         <v>268</v>
       </c>
       <c r="D367" t="n">
-        <v>8725.1</v>
+        <v>8516</v>
       </c>
     </row>
     <row r="368">
@@ -6318,13 +6318,13 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C368" t="n">
         <v>90</v>
       </c>
       <c r="D368" t="n">
-        <v>5221</v>
+        <v>5045.3</v>
       </c>
     </row>
     <row r="369">
@@ -6334,13 +6334,13 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C369" t="n">
         <v>252</v>
       </c>
       <c r="D369" t="n">
-        <v>8446.700000000001</v>
+        <v>8637.6</v>
       </c>
     </row>
     <row r="370">
@@ -6350,13 +6350,13 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C370" t="n">
         <v>116</v>
       </c>
       <c r="D370" t="n">
-        <v>5101.9</v>
+        <v>4997.3</v>
       </c>
     </row>
     <row r="371">
@@ -6372,7 +6372,7 @@
         <v>302</v>
       </c>
       <c r="D371" t="n">
-        <v>12446.1</v>
+        <v>12495.4</v>
       </c>
     </row>
     <row r="372">
@@ -6388,7 +6388,7 @@
         <v>101</v>
       </c>
       <c r="D372" t="n">
-        <v>3776.3</v>
+        <v>3580.2</v>
       </c>
     </row>
     <row r="373">
@@ -6420,7 +6420,7 @@
         <v>12</v>
       </c>
       <c r="D374" t="n">
-        <v>718.3</v>
+        <v>726.1</v>
       </c>
     </row>
     <row r="375">
@@ -6436,7 +6436,7 @@
         <v>242</v>
       </c>
       <c r="D375" t="n">
-        <v>11280.2</v>
+        <v>11007.1</v>
       </c>
     </row>
     <row r="376">
@@ -6446,13 +6446,13 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C376" t="n">
         <v>170</v>
       </c>
       <c r="D376" t="n">
-        <v>7556.3</v>
+        <v>8066.9</v>
       </c>
     </row>
     <row r="377">
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C377" t="n">
         <v>151</v>
       </c>
       <c r="D377" t="n">
-        <v>6091.8</v>
+        <v>6007.6</v>
       </c>
     </row>
     <row r="378">
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C378" t="n">
         <v>23</v>
       </c>
       <c r="D378" t="n">
-        <v>963.4</v>
+        <v>1288.5</v>
       </c>
     </row>
     <row r="379">
@@ -6500,7 +6500,7 @@
         <v>30</v>
       </c>
       <c r="D379" t="n">
-        <v>901.2</v>
+        <v>957.9</v>
       </c>
     </row>
     <row r="380">
@@ -6510,13 +6510,13 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C380" t="n">
         <v>493</v>
       </c>
       <c r="D380" t="n">
-        <v>15582.7</v>
+        <v>16242.6</v>
       </c>
     </row>
     <row r="381">
@@ -6532,7 +6532,7 @@
         <v>83</v>
       </c>
       <c r="D381" t="n">
-        <v>4765.2</v>
+        <v>4496.4</v>
       </c>
     </row>
     <row r="382">
@@ -6542,13 +6542,13 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C382" t="n">
         <v>85</v>
       </c>
       <c r="D382" t="n">
-        <v>4244.1</v>
+        <v>4503.8</v>
       </c>
     </row>
     <row r="383">
@@ -6564,7 +6564,7 @@
         <v>98</v>
       </c>
       <c r="D383" t="n">
-        <v>5306.4</v>
+        <v>5335.3</v>
       </c>
     </row>
     <row r="384">
@@ -6574,13 +6574,13 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C384" t="n">
         <v>102</v>
       </c>
       <c r="D384" t="n">
-        <v>1850</v>
+        <v>1930.6</v>
       </c>
     </row>
     <row r="385">
@@ -6590,13 +6590,13 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C385" t="n">
         <v>100</v>
       </c>
       <c r="D385" t="n">
-        <v>4671</v>
+        <v>4896.1</v>
       </c>
     </row>
     <row r="386">
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C386" t="n">
         <v>28</v>
       </c>
       <c r="D386" t="n">
-        <v>1386</v>
+        <v>1537.5</v>
       </c>
     </row>
     <row r="387">
@@ -6628,7 +6628,7 @@
         <v>28</v>
       </c>
       <c r="D387" t="n">
-        <v>1062.8</v>
+        <v>1078.1</v>
       </c>
     </row>
     <row r="388">
@@ -6638,13 +6638,13 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C388" t="n">
         <v>144</v>
       </c>
       <c r="D388" t="n">
-        <v>6018.5</v>
+        <v>6379.4</v>
       </c>
     </row>
     <row r="389">
@@ -6660,7 +6660,7 @@
         <v>191</v>
       </c>
       <c r="D389" t="n">
-        <v>7325</v>
+        <v>7375.5</v>
       </c>
     </row>
     <row r="390">
@@ -6670,13 +6670,13 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C390" t="n">
         <v>48</v>
       </c>
       <c r="D390" t="n">
-        <v>2406.2</v>
+        <v>2229.6</v>
       </c>
     </row>
     <row r="391">
@@ -6686,13 +6686,13 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C391" t="n">
         <v>357</v>
       </c>
       <c r="D391" t="n">
-        <v>16210.3</v>
+        <v>15640.3</v>
       </c>
     </row>
     <row r="392">
@@ -6718,13 +6718,13 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C393" t="n">
         <v>136</v>
       </c>
       <c r="D393" t="n">
-        <v>6215.8</v>
+        <v>6562.9</v>
       </c>
     </row>
     <row r="394">
@@ -6766,13 +6766,13 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C396" t="n">
         <v>26</v>
       </c>
       <c r="D396" t="n">
-        <v>875.1</v>
+        <v>801.3</v>
       </c>
     </row>
     <row r="397">
@@ -6782,13 +6782,13 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C397" t="n">
         <v>31</v>
       </c>
       <c r="D397" t="n">
-        <v>1606.8</v>
+        <v>1483.6</v>
       </c>
     </row>
     <row r="398">
@@ -6798,13 +6798,13 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C398" t="n">
         <v>186</v>
       </c>
       <c r="D398" t="n">
-        <v>7794.2</v>
+        <v>7639.7</v>
       </c>
     </row>
     <row r="399">
@@ -6814,13 +6814,13 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C399" t="n">
         <v>122</v>
       </c>
       <c r="D399" t="n">
-        <v>5377.4</v>
+        <v>5732.1</v>
       </c>
     </row>
     <row r="400">
@@ -6836,7 +6836,7 @@
         <v>23</v>
       </c>
       <c r="D400" t="n">
-        <v>1340.1</v>
+        <v>1298.6</v>
       </c>
     </row>
     <row r="401">
@@ -6846,13 +6846,13 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C401" t="n">
         <v>61</v>
       </c>
       <c r="D401" t="n">
-        <v>3841.2</v>
+        <v>3515.1</v>
       </c>
     </row>
     <row r="402">
@@ -6868,7 +6868,7 @@
         <v>27</v>
       </c>
       <c r="D402" t="n">
-        <v>955.5</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="403">
@@ -6884,7 +6884,7 @@
         <v>351</v>
       </c>
       <c r="D403" t="n">
-        <v>13687.5</v>
+        <v>13615.7</v>
       </c>
     </row>
     <row r="404">
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C407" t="n">
         <v>22</v>
       </c>
       <c r="D407" t="n">
-        <v>1139.3</v>
+        <v>1014.6</v>
       </c>
     </row>
     <row r="408">
@@ -6964,7 +6964,7 @@
         <v>64</v>
       </c>
       <c r="D408" t="n">
-        <v>1877.4</v>
+        <v>1726.8</v>
       </c>
     </row>
     <row r="409">
@@ -6974,13 +6974,13 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C409" t="n">
         <v>144</v>
       </c>
       <c r="D409" t="n">
-        <v>5876</v>
+        <v>6368.1</v>
       </c>
     </row>
     <row r="410">
@@ -7006,13 +7006,13 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C411" t="n">
         <v>100</v>
       </c>
       <c r="D411" t="n">
-        <v>4733.5</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="412">
@@ -7028,7 +7028,7 @@
         <v>79</v>
       </c>
       <c r="D412" t="n">
-        <v>3854.2</v>
+        <v>3741.8</v>
       </c>
     </row>
     <row r="413">
@@ -7044,7 +7044,7 @@
         <v>25</v>
       </c>
       <c r="D413" t="n">
-        <v>1182.7</v>
+        <v>1077.9</v>
       </c>
     </row>
     <row r="414">
@@ -7060,7 +7060,7 @@
         <v>26</v>
       </c>
       <c r="D414" t="n">
-        <v>1194.3</v>
+        <v>1167.4</v>
       </c>
     </row>
     <row r="415">
@@ -7070,13 +7070,13 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C415" t="n">
         <v>402</v>
       </c>
       <c r="D415" t="n">
-        <v>17119.3</v>
+        <v>16432.9</v>
       </c>
     </row>
     <row r="416">
@@ -7086,13 +7086,13 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C416" t="n">
         <v>120</v>
       </c>
       <c r="D416" t="n">
-        <v>5688.4</v>
+        <v>5366.7</v>
       </c>
     </row>
     <row r="417">
@@ -7102,13 +7102,13 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C417" t="n">
         <v>131</v>
       </c>
       <c r="D417" t="n">
-        <v>5870.8</v>
+        <v>5765.9</v>
       </c>
     </row>
     <row r="418">
@@ -7124,7 +7124,7 @@
         <v>29</v>
       </c>
       <c r="D418" t="n">
-        <v>1239.3</v>
+        <v>1245.5</v>
       </c>
     </row>
     <row r="419">
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C419" t="n">
         <v>192</v>
       </c>
       <c r="D419" t="n">
-        <v>8396.4</v>
+        <v>7976.6</v>
       </c>
     </row>
     <row r="420">
@@ -7156,7 +7156,7 @@
         <v>47</v>
       </c>
       <c r="D420" t="n">
-        <v>2735.6</v>
+        <v>2775.7</v>
       </c>
     </row>
     <row r="421">
@@ -7188,7 +7188,7 @@
         <v>77</v>
       </c>
       <c r="D422" t="n">
-        <v>3521.1</v>
+        <v>3532.2</v>
       </c>
     </row>
     <row r="423">
@@ -7204,7 +7204,7 @@
         <v>13</v>
       </c>
       <c r="D423" t="n">
-        <v>912.5</v>
+        <v>814</v>
       </c>
     </row>
     <row r="424">
@@ -7252,7 +7252,7 @@
         <v>22</v>
       </c>
       <c r="D426" t="n">
-        <v>1047.4</v>
+        <v>1077.4</v>
       </c>
     </row>
     <row r="427">
@@ -7268,7 +7268,7 @@
         <v>31</v>
       </c>
       <c r="D427" t="n">
-        <v>1157.1</v>
+        <v>1177.9</v>
       </c>
     </row>
     <row r="428">
@@ -7284,7 +7284,7 @@
         <v>161</v>
       </c>
       <c r="D428" t="n">
-        <v>7508.7</v>
+        <v>7551.8</v>
       </c>
     </row>
     <row r="429">
@@ -7294,13 +7294,13 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C429" t="n">
         <v>37</v>
       </c>
       <c r="D429" t="n">
-        <v>1310.4</v>
+        <v>1323.2</v>
       </c>
     </row>
     <row r="430">
@@ -7310,13 +7310,13 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C430" t="n">
         <v>182</v>
       </c>
       <c r="D430" t="n">
-        <v>7759.6</v>
+        <v>7762.8</v>
       </c>
     </row>
     <row r="431">
@@ -7326,13 +7326,13 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C431" t="n">
         <v>32</v>
       </c>
       <c r="D431" t="n">
-        <v>1634.4</v>
+        <v>1736.2</v>
       </c>
     </row>
     <row r="432">
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C432" t="n">
         <v>231</v>
       </c>
       <c r="D432" t="n">
-        <v>10106</v>
+        <v>10215.3</v>
       </c>
     </row>
     <row r="433">
@@ -7364,7 +7364,7 @@
         <v>14</v>
       </c>
       <c r="D433" t="n">
-        <v>1129.7</v>
+        <v>1114.4</v>
       </c>
     </row>
     <row r="434">
@@ -7380,7 +7380,7 @@
         <v>126</v>
       </c>
       <c r="D434" t="n">
-        <v>6932.9</v>
+        <v>6906.5</v>
       </c>
     </row>
     <row r="435">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C437" t="n">
         <v>192</v>
       </c>
       <c r="D437" t="n">
-        <v>3280.1</v>
+        <v>3197.9</v>
       </c>
     </row>
     <row r="438">
@@ -7444,7 +7444,7 @@
         <v>118</v>
       </c>
       <c r="D438" t="n">
-        <v>4945.8</v>
+        <v>4794.1</v>
       </c>
     </row>
     <row r="439">
@@ -7454,13 +7454,13 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C439" t="n">
         <v>99</v>
       </c>
       <c r="D439" t="n">
-        <v>6310.7</v>
+        <v>5898.8</v>
       </c>
     </row>
     <row r="440">
@@ -7470,13 +7470,13 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C440" t="n">
         <v>160</v>
       </c>
       <c r="D440" t="n">
-        <v>8721.799999999999</v>
+        <v>7905.9</v>
       </c>
     </row>
     <row r="441">
@@ -7492,7 +7492,7 @@
         <v>74</v>
       </c>
       <c r="D441" t="n">
-        <v>1309.3</v>
+        <v>1330.1</v>
       </c>
     </row>
     <row r="442">
@@ -7540,7 +7540,7 @@
         <v>37</v>
       </c>
       <c r="D444" t="n">
-        <v>1830.2</v>
+        <v>1826.6</v>
       </c>
     </row>
     <row r="445">
@@ -7550,13 +7550,13 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C445" t="n">
         <v>119</v>
       </c>
       <c r="D445" t="n">
-        <v>5707.9</v>
+        <v>5794.3</v>
       </c>
     </row>
     <row r="446">
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C446" t="n">
         <v>177</v>
       </c>
       <c r="D446" t="n">
-        <v>8449.299999999999</v>
+        <v>8301.1</v>
       </c>
     </row>
     <row r="447">
@@ -7582,13 +7582,13 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C447" t="n">
         <v>52</v>
       </c>
       <c r="D447" t="n">
-        <v>1254.2</v>
+        <v>1165.2</v>
       </c>
     </row>
     <row r="448">
@@ -7598,13 +7598,13 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C448" t="n">
         <v>117</v>
       </c>
       <c r="D448" t="n">
-        <v>5690.1</v>
+        <v>5680.7</v>
       </c>
     </row>
     <row r="449">
@@ -7620,7 +7620,7 @@
         <v>19</v>
       </c>
       <c r="D449" t="n">
-        <v>1220.3</v>
+        <v>1217.6</v>
       </c>
     </row>
     <row r="450">
@@ -7630,13 +7630,13 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C450" t="n">
         <v>22</v>
       </c>
       <c r="D450" t="n">
-        <v>1443</v>
+        <v>1449.7</v>
       </c>
     </row>
     <row r="451">
@@ -7646,13 +7646,13 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C451" t="n">
         <v>131</v>
       </c>
       <c r="D451" t="n">
-        <v>6571.8</v>
+        <v>6480.5</v>
       </c>
     </row>
     <row r="452">
@@ -7668,7 +7668,7 @@
         <v>89</v>
       </c>
       <c r="D452" t="n">
-        <v>4555.6</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="453">
@@ -7684,7 +7684,7 @@
         <v>39</v>
       </c>
       <c r="D453" t="n">
-        <v>1204.1</v>
+        <v>1167.9</v>
       </c>
     </row>
     <row r="454">
@@ -7700,7 +7700,7 @@
         <v>48</v>
       </c>
       <c r="D454" t="n">
-        <v>1284.5</v>
+        <v>1334.5</v>
       </c>
     </row>
     <row r="455">
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C455" t="n">
         <v>145</v>
       </c>
       <c r="D455" t="n">
-        <v>6208.7</v>
+        <v>6039.8</v>
       </c>
     </row>
     <row r="456">
@@ -7726,13 +7726,13 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C456" t="n">
         <v>60</v>
       </c>
       <c r="D456" t="n">
-        <v>3434.6</v>
+        <v>3578.4</v>
       </c>
     </row>
     <row r="457">
@@ -7758,13 +7758,13 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C458" t="n">
         <v>34</v>
       </c>
       <c r="D458" t="n">
-        <v>1409</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="459">
@@ -7780,7 +7780,7 @@
         <v>49</v>
       </c>
       <c r="D459" t="n">
-        <v>1398.7</v>
+        <v>1414.9</v>
       </c>
     </row>
     <row r="460">
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C460" t="n">
         <v>155</v>
       </c>
       <c r="D460" t="n">
-        <v>6545.8</v>
+        <v>6137.6</v>
       </c>
     </row>
     <row r="461">
@@ -7806,13 +7806,13 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C461" t="n">
         <v>150</v>
       </c>
       <c r="D461" t="n">
-        <v>6957.6</v>
+        <v>6632.8</v>
       </c>
     </row>
     <row r="462">
@@ -7838,13 +7838,13 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C463" t="n">
         <v>59</v>
       </c>
       <c r="D463" t="n">
-        <v>2825.9</v>
+        <v>2766.6</v>
       </c>
     </row>
     <row r="464">
@@ -7876,7 +7876,7 @@
         <v>46</v>
       </c>
       <c r="D465" t="n">
-        <v>1805.6</v>
+        <v>1803.2</v>
       </c>
     </row>
     <row r="466">
@@ -7886,13 +7886,13 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C466" t="n">
         <v>19</v>
       </c>
       <c r="D466" t="n">
-        <v>835.4</v>
+        <v>898.6</v>
       </c>
     </row>
     <row r="467">
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C467" t="n">
         <v>152</v>
       </c>
       <c r="D467" t="n">
-        <v>6523</v>
+        <v>6168.8</v>
       </c>
     </row>
     <row r="468">
@@ -7934,13 +7934,13 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C469" t="n">
         <v>184</v>
       </c>
       <c r="D469" t="n">
-        <v>9804.700000000001</v>
+        <v>10029.4</v>
       </c>
     </row>
     <row r="470">
@@ -7966,13 +7966,13 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C471" t="n">
         <v>140</v>
       </c>
       <c r="D471" t="n">
-        <v>8817.9</v>
+        <v>8474.200000000001</v>
       </c>
     </row>
     <row r="472">
@@ -7982,13 +7982,13 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C472" t="n">
         <v>163</v>
       </c>
       <c r="D472" t="n">
-        <v>6781.6</v>
+        <v>6194.8</v>
       </c>
     </row>
     <row r="473">
@@ -8004,7 +8004,7 @@
         <v>30</v>
       </c>
       <c r="D473" t="n">
-        <v>1736.8</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="474">
@@ -8014,13 +8014,13 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C474" t="n">
         <v>260</v>
       </c>
       <c r="D474" t="n">
-        <v>12335.1</v>
+        <v>12126.7</v>
       </c>
     </row>
     <row r="475">
@@ -8030,13 +8030,13 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C475" t="n">
         <v>50</v>
       </c>
       <c r="D475" t="n">
-        <v>2600.3</v>
+        <v>2814.5</v>
       </c>
     </row>
     <row r="476">
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C476" t="n">
         <v>161</v>
       </c>
       <c r="D476" t="n">
-        <v>6072.1</v>
+        <v>6246.2</v>
       </c>
     </row>
     <row r="477">
@@ -8068,7 +8068,7 @@
         <v>49</v>
       </c>
       <c r="D477" t="n">
-        <v>1141.7</v>
+        <v>1117.7</v>
       </c>
     </row>
     <row r="478">
@@ -8078,13 +8078,13 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C478" t="n">
         <v>25</v>
       </c>
       <c r="D478" t="n">
-        <v>1368.4</v>
+        <v>1291.9</v>
       </c>
     </row>
     <row r="479">
@@ -8094,13 +8094,13 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C479" t="n">
         <v>100</v>
       </c>
       <c r="D479" t="n">
-        <v>2770.8</v>
+        <v>2914.5</v>
       </c>
     </row>
     <row r="480">
@@ -8110,13 +8110,13 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C480" t="n">
         <v>118</v>
       </c>
       <c r="D480" t="n">
-        <v>5358.6</v>
+        <v>5771.7</v>
       </c>
     </row>
     <row r="481">
@@ -8132,7 +8132,7 @@
         <v>130</v>
       </c>
       <c r="D481" t="n">
-        <v>5000.4</v>
+        <v>5139.1</v>
       </c>
     </row>
     <row r="482">
@@ -8142,13 +8142,13 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C482" t="n">
         <v>115</v>
       </c>
       <c r="D482" t="n">
-        <v>5512.4</v>
+        <v>5263.2</v>
       </c>
     </row>
     <row r="483">
@@ -8158,13 +8158,13 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C483" t="n">
         <v>38</v>
       </c>
       <c r="D483" t="n">
-        <v>1748.8</v>
+        <v>1972.5</v>
       </c>
     </row>
     <row r="484">
@@ -8174,13 +8174,13 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C484" t="n">
         <v>24</v>
       </c>
       <c r="D484" t="n">
-        <v>1133.6</v>
+        <v>870.5</v>
       </c>
     </row>
     <row r="485">
@@ -8196,7 +8196,7 @@
         <v>37</v>
       </c>
       <c r="D485" t="n">
-        <v>1389.8</v>
+        <v>1377.2</v>
       </c>
     </row>
     <row r="486">
@@ -8206,13 +8206,13 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C486" t="n">
         <v>32</v>
       </c>
       <c r="D486" t="n">
-        <v>1487.8</v>
+        <v>1430.2</v>
       </c>
     </row>
     <row r="487">
@@ -8228,7 +8228,7 @@
         <v>68</v>
       </c>
       <c r="D487" t="n">
-        <v>3404.5</v>
+        <v>3411.4</v>
       </c>
     </row>
     <row r="488">
@@ -8238,13 +8238,13 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C488" t="n">
         <v>146</v>
       </c>
       <c r="D488" t="n">
-        <v>6746.9</v>
+        <v>6383.5</v>
       </c>
     </row>
   </sheetData>
